--- a/Deaths/Italy Cases.xlsx
+++ b/Deaths/Italy Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Google Drive\Backup\LwC\Users\JohannAbr\Documents\Corona\Daten\Deaths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26439A8-0E9E-4C07-977E-F760D52A31B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6809149-1590-4C71-AD83-DB0E9175FD63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{66B2E3FF-562F-4D86-A698-E4152D9A5061}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="1310">
   <si>
     <t>VDA</t>
   </si>
@@ -3593,6 +3593,375 @@
   </si>
   <si>
     <t>[589]</t>
+  </si>
+  <si>
+    <t>(10) 51</t>
+  </si>
+  <si>
+    <t>(37) 137</t>
+  </si>
+  <si>
+    <t>(39) 399</t>
+  </si>
+  <si>
+    <t>(21) 39</t>
+  </si>
+  <si>
+    <t>(1) 8</t>
+  </si>
+  <si>
+    <t>(17) 72</t>
+  </si>
+  <si>
+    <t>(12) 32</t>
+  </si>
+  <si>
+    <t>(2) 30</t>
+  </si>
+  <si>
+    <t>[592]</t>
+  </si>
+  <si>
+    <t>(18) 64</t>
+  </si>
+  <si>
+    <t>(69) 326</t>
+  </si>
+  <si>
+    <t>(11) 13</t>
+  </si>
+  <si>
+    <t>(13) 50</t>
+  </si>
+  <si>
+    <t>(5) 35</t>
+  </si>
+  <si>
+    <t>(6) 50</t>
+  </si>
+  <si>
+    <t>[593]</t>
+  </si>
+  <si>
+    <t>(20) 72</t>
+  </si>
+  <si>
+    <t>(24) 175</t>
+  </si>
+  <si>
+    <t>(9) 9</t>
+  </si>
+  <si>
+    <t>(13) 35</t>
+  </si>
+  <si>
+    <t>(5) 13</t>
+  </si>
+  <si>
+    <t>[594]</t>
+  </si>
+  <si>
+    <t>(9) 66</t>
+  </si>
+  <si>
+    <t>(47) 108</t>
+  </si>
+  <si>
+    <t>(54) 462</t>
+  </si>
+  <si>
+    <t>(17) 47</t>
+  </si>
+  <si>
+    <t>(2) –3</t>
+  </si>
+  <si>
+    <t>(12) 20</t>
+  </si>
+  <si>
+    <t>(2) 10</t>
+  </si>
+  <si>
+    <t>[595]</t>
+  </si>
+  <si>
+    <t>(10) 32</t>
+  </si>
+  <si>
+    <t>(39) 158</t>
+  </si>
+  <si>
+    <t>(65) 294</t>
+  </si>
+  <si>
+    <t>(12) 33</t>
+  </si>
+  <si>
+    <t>(11) 50</t>
+  </si>
+  <si>
+    <t>(6) 14</t>
+  </si>
+  <si>
+    <t>(7) 28</t>
+  </si>
+  <si>
+    <t>(5) 11</t>
+  </si>
+  <si>
+    <t>[596]</t>
+  </si>
+  <si>
+    <t>(11) 55</t>
+  </si>
+  <si>
+    <t>(24) 105</t>
+  </si>
+  <si>
+    <t>(65) 316</t>
+  </si>
+  <si>
+    <t>(9) 8</t>
+  </si>
+  <si>
+    <t>(17) 53</t>
+  </si>
+  <si>
+    <t>(15) 25</t>
+  </si>
+  <si>
+    <t>[597]</t>
+  </si>
+  <si>
+    <t>(10) 45</t>
+  </si>
+  <si>
+    <t>(15) 87</t>
+  </si>
+  <si>
+    <t>(57) 293</t>
+  </si>
+  <si>
+    <t>(13) 21</t>
+  </si>
+  <si>
+    <t>(7) 31</t>
+  </si>
+  <si>
+    <t>(4) 27</t>
+  </si>
+  <si>
+    <t>[598]</t>
+  </si>
+  <si>
+    <t>(7) 38</t>
+  </si>
+  <si>
+    <t>(14) 60</t>
+  </si>
+  <si>
+    <t>(56) 441</t>
+  </si>
+  <si>
+    <t>(11) 10</t>
+  </si>
+  <si>
+    <t>(10) 43</t>
+  </si>
+  <si>
+    <t>(3) 4</t>
+  </si>
+  <si>
+    <t>[599]</t>
+  </si>
+  <si>
+    <t>(12) 43</t>
+  </si>
+  <si>
+    <t>(8) 45</t>
+  </si>
+  <si>
+    <t>(8) 20</t>
+  </si>
+  <si>
+    <t>[600]</t>
+  </si>
+  <si>
+    <t>(6) 17</t>
+  </si>
+  <si>
+    <t>(15) 48</t>
+  </si>
+  <si>
+    <t>(34) 148</t>
+  </si>
+  <si>
+    <t>(9) 11</t>
+  </si>
+  <si>
+    <t>(13) 29</t>
+  </si>
+  <si>
+    <t>(4) 16</t>
+  </si>
+  <si>
+    <t>[601]</t>
+  </si>
+  <si>
+    <t>(6) 53</t>
+  </si>
+  <si>
+    <t>(14) 86</t>
+  </si>
+  <si>
+    <t>(22) 159</t>
+  </si>
+  <si>
+    <t>(8) 8</t>
+  </si>
+  <si>
+    <t>(8) 24</t>
+  </si>
+  <si>
+    <t>(6) 3</t>
+  </si>
+  <si>
+    <t>(5) 18</t>
+  </si>
+  <si>
+    <t>(3) 2</t>
+  </si>
+  <si>
+    <t>[602]</t>
+  </si>
+  <si>
+    <t>(7) 39</t>
+  </si>
+  <si>
+    <t>(16) 73</t>
+  </si>
+  <si>
+    <t>(58) 384</t>
+  </si>
+  <si>
+    <t>(7) 16</t>
+  </si>
+  <si>
+    <t>(6) 12</t>
+  </si>
+  <si>
+    <t>(8) 11</t>
+  </si>
+  <si>
+    <t>[603]</t>
+  </si>
+  <si>
+    <t>(10) 58</t>
+  </si>
+  <si>
+    <t>(20) 382</t>
+  </si>
+  <si>
+    <t>[604]</t>
+  </si>
+  <si>
+    <t>(13) 56</t>
+  </si>
+  <si>
+    <t>(38) 354</t>
+  </si>
+  <si>
+    <t>(8) 9</t>
+  </si>
+  <si>
+    <t>(8) 38</t>
+  </si>
+  <si>
+    <t>(–11) 4</t>
+  </si>
+  <si>
+    <t>(13) 16</t>
+  </si>
+  <si>
+    <t>(4) 1</t>
+  </si>
+  <si>
+    <t>[605]</t>
+  </si>
+  <si>
+    <t>(7) 32</t>
+  </si>
+  <si>
+    <t>(67) 221</t>
+  </si>
+  <si>
+    <t>(10) 12</t>
+  </si>
+  <si>
+    <t>(5) 20</t>
+  </si>
+  <si>
+    <t>(7) 6</t>
+  </si>
+  <si>
+    <t>[606]</t>
+  </si>
+  <si>
+    <t>(9) 54</t>
+  </si>
+  <si>
+    <t>(33) 210</t>
+  </si>
+  <si>
+    <t>(7) 13</t>
+  </si>
+  <si>
+    <t>[607]</t>
+  </si>
+  <si>
+    <t>(9) 21</t>
+  </si>
+  <si>
+    <t>(19) 50</t>
+  </si>
+  <si>
+    <t>(10) 19</t>
+  </si>
+  <si>
+    <t>(7) 3</t>
+  </si>
+  <si>
+    <t>(3) 1</t>
+  </si>
+  <si>
+    <t>[608]</t>
+  </si>
+  <si>
+    <t>(8) 57</t>
+  </si>
+  <si>
+    <t>(12) 187</t>
+  </si>
+  <si>
+    <t>(12) 19</t>
+  </si>
+  <si>
+    <t>(5) 4</t>
+  </si>
+  <si>
+    <t>[609]</t>
+  </si>
+  <si>
+    <t>(14) 19</t>
+  </si>
+  <si>
+    <t>(29) 237</t>
+  </si>
+  <si>
+    <t>(11) 14</t>
+  </si>
+  <si>
+    <t>[610]</t>
   </si>
 </sst>
 </file>
@@ -3728,7 +4097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3786,6 +4155,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4101,10 +4474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA5C306-C673-43C4-A066-7826087AE258}">
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView topLeftCell="J90" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11686,38 +12059,1643 @@
       <c r="AF88" s="20"/>
     </row>
     <row r="89" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="15"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
+      <c r="A89" s="15">
+        <v>43967</v>
+      </c>
+      <c r="B89" s="16">
+        <v>1</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>787</v>
+      </c>
       <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
+      <c r="I89" s="16" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>963</v>
+      </c>
       <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
-      <c r="S89" s="16"/>
-      <c r="T89" s="16"/>
-      <c r="U89" s="16"/>
-      <c r="V89" s="16"/>
-      <c r="W89" s="17"/>
-      <c r="X89" s="19"/>
-      <c r="Y89" s="17"/>
-      <c r="Z89" s="19"/>
-      <c r="AA89" s="16"/>
-      <c r="AB89" s="18"/>
-      <c r="AC89" s="18"/>
-      <c r="AD89" s="18"/>
-      <c r="AE89" s="7"/>
-      <c r="AF89" s="20"/>
+      <c r="N89" s="16" t="s">
+        <v>1193</v>
+      </c>
+      <c r="O89" s="16" t="s">
+        <v>1194</v>
+      </c>
+      <c r="P89" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="16">
+        <v>14</v>
+      </c>
+      <c r="R89" s="16">
+        <v>1</v>
+      </c>
+      <c r="S89" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="T89" s="16">
+        <v>7</v>
+      </c>
+      <c r="U89" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="V89" s="16">
+        <v>4</v>
+      </c>
+      <c r="W89" s="17">
+        <v>875</v>
+      </c>
+      <c r="X89" s="19">
+        <v>224760</v>
+      </c>
+      <c r="Y89" s="17">
+        <v>153</v>
+      </c>
+      <c r="Z89" s="19">
+        <v>31763</v>
+      </c>
+      <c r="AA89" s="16">
+        <v>775</v>
+      </c>
+      <c r="AB89" s="18">
+        <v>70187</v>
+      </c>
+      <c r="AC89" s="18">
+        <v>2605</v>
+      </c>
+      <c r="AD89" s="18">
+        <v>122810</v>
+      </c>
+      <c r="AE89" s="21">
+        <v>2944859</v>
+      </c>
+      <c r="AF89" s="20" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A90" s="13">
+        <v>43968</v>
+      </c>
+      <c r="B90">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>972</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G90">
+        <v>12</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>8</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L90" t="s">
+        <v>1200</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1201</v>
+      </c>
+      <c r="O90" t="s">
+        <v>787</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>16</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90" t="s">
+        <v>994</v>
+      </c>
+      <c r="U90" t="s">
+        <v>1141</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <v>675</v>
+      </c>
+      <c r="X90" s="22">
+        <v>225435</v>
+      </c>
+      <c r="Y90">
+        <v>145</v>
+      </c>
+      <c r="Z90" s="22">
+        <v>31908</v>
+      </c>
+      <c r="AA90">
+        <v>762</v>
+      </c>
+      <c r="AB90" s="22">
+        <v>68351</v>
+      </c>
+      <c r="AC90" s="22">
+        <v>2366</v>
+      </c>
+      <c r="AD90" s="22">
+        <v>125176</v>
+      </c>
+      <c r="AE90" s="22">
+        <v>3004960</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A91" s="13">
+        <v>43969</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G91">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>725</v>
+      </c>
+      <c r="I91" t="s">
+        <v>766</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K91">
+        <v>11</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1207</v>
+      </c>
+      <c r="N91" t="s">
+        <v>930</v>
+      </c>
+      <c r="O91" t="s">
+        <v>962</v>
+      </c>
+      <c r="P91">
+        <v>11</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>734</v>
+      </c>
+      <c r="S91" t="s">
+        <v>766</v>
+      </c>
+      <c r="U91">
+        <v>7</v>
+      </c>
+      <c r="V91">
+        <v>-1</v>
+      </c>
+      <c r="W91">
+        <v>451</v>
+      </c>
+      <c r="X91" s="22">
+        <v>225886</v>
+      </c>
+      <c r="Y91">
+        <v>99</v>
+      </c>
+      <c r="Z91" s="22">
+        <v>32007</v>
+      </c>
+      <c r="AA91">
+        <v>749</v>
+      </c>
+      <c r="AB91" s="22">
+        <v>66553</v>
+      </c>
+      <c r="AC91" s="22">
+        <v>2150</v>
+      </c>
+      <c r="AD91" s="22">
+        <v>127326</v>
+      </c>
+      <c r="AE91" s="22">
+        <v>3041366</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A92" s="13">
+        <v>43970</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G92" t="s">
+        <v>898</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+      <c r="J92" t="s">
+        <v>876</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L92" t="s">
+        <v>962</v>
+      </c>
+      <c r="M92" t="s">
+        <v>691</v>
+      </c>
+      <c r="N92" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O92" t="s">
+        <v>824</v>
+      </c>
+      <c r="Q92">
+        <v>12</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92" t="s">
+        <v>1215</v>
+      </c>
+      <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92" t="s">
+        <v>1191</v>
+      </c>
+      <c r="V92">
+        <v>1</v>
+      </c>
+      <c r="W92">
+        <v>813</v>
+      </c>
+      <c r="X92" s="22">
+        <v>226699</v>
+      </c>
+      <c r="Y92">
+        <v>162</v>
+      </c>
+      <c r="Z92" s="22">
+        <v>32169</v>
+      </c>
+      <c r="AA92">
+        <v>716</v>
+      </c>
+      <c r="AB92" s="22">
+        <v>65129</v>
+      </c>
+      <c r="AC92" s="22">
+        <v>2075</v>
+      </c>
+      <c r="AD92" s="22">
+        <v>129401</v>
+      </c>
+      <c r="AE92" s="22">
+        <v>3104524</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A93" s="13">
+        <v>43971</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G93">
+        <v>10</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K93" t="s">
+        <v>810</v>
+      </c>
+      <c r="L93" t="s">
+        <v>1222</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O93">
+        <v>8</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>898</v>
+      </c>
+      <c r="S93" t="s">
+        <v>1224</v>
+      </c>
+      <c r="T93" t="s">
+        <v>691</v>
+      </c>
+      <c r="U93">
+        <v>8</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>665</v>
+      </c>
+      <c r="X93" s="22">
+        <v>227364</v>
+      </c>
+      <c r="Y93">
+        <v>161</v>
+      </c>
+      <c r="Z93" s="22">
+        <v>32330</v>
+      </c>
+      <c r="AA93">
+        <v>676</v>
+      </c>
+      <c r="AB93" s="22">
+        <v>62752</v>
+      </c>
+      <c r="AC93" s="22">
+        <v>2881</v>
+      </c>
+      <c r="AD93" s="22">
+        <v>132282</v>
+      </c>
+      <c r="AE93" s="22">
+        <v>3171719</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A94" s="13">
+        <v>43972</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G94">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
+        <v>931</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L94" t="s">
+        <v>909</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O94" t="s">
+        <v>898</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>984</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>6</v>
+      </c>
+      <c r="U94">
+        <v>6</v>
+      </c>
+      <c r="V94" t="s">
+        <v>725</v>
+      </c>
+      <c r="W94">
+        <v>642</v>
+      </c>
+      <c r="X94" s="22">
+        <v>228006</v>
+      </c>
+      <c r="Y94">
+        <v>156</v>
+      </c>
+      <c r="Z94" s="22">
+        <v>32486</v>
+      </c>
+      <c r="AA94">
+        <v>640</v>
+      </c>
+      <c r="AB94" s="22">
+        <v>60960</v>
+      </c>
+      <c r="AC94" s="22">
+        <v>2278</v>
+      </c>
+      <c r="AD94" s="22">
+        <v>134560</v>
+      </c>
+      <c r="AE94" s="22">
+        <v>3243398</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A95" s="13">
+        <v>43973</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J95" t="s">
+        <v>707</v>
+      </c>
+      <c r="K95">
+        <v>8</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1165</v>
+      </c>
+      <c r="P95">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>827</v>
+      </c>
+      <c r="S95" t="s">
+        <v>1238</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="U95">
+        <v>4</v>
+      </c>
+      <c r="V95">
+        <v>-1</v>
+      </c>
+      <c r="W95">
+        <v>652</v>
+      </c>
+      <c r="X95" s="22">
+        <v>228658</v>
+      </c>
+      <c r="Y95">
+        <v>130</v>
+      </c>
+      <c r="Z95" s="22">
+        <v>32616</v>
+      </c>
+      <c r="AA95">
+        <v>595</v>
+      </c>
+      <c r="AB95" s="22">
+        <v>59322</v>
+      </c>
+      <c r="AC95" s="22">
+        <v>2160</v>
+      </c>
+      <c r="AD95" s="22">
+        <v>136720</v>
+      </c>
+      <c r="AE95" s="22">
+        <v>3318778</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A96" s="13">
+        <v>43974</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G96" t="s">
+        <v>766</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>960</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>5</v>
+      </c>
+      <c r="Q96">
+        <v>11</v>
+      </c>
+      <c r="R96">
+        <v>4</v>
+      </c>
+      <c r="S96" t="s">
+        <v>1135</v>
+      </c>
+      <c r="U96">
+        <v>-1</v>
+      </c>
+      <c r="V96">
+        <v>-1</v>
+      </c>
+      <c r="W96">
+        <v>669</v>
+      </c>
+      <c r="X96" s="22">
+        <v>229327</v>
+      </c>
+      <c r="Y96">
+        <v>119</v>
+      </c>
+      <c r="Z96" s="22">
+        <v>32735</v>
+      </c>
+      <c r="AA96">
+        <v>572</v>
+      </c>
+      <c r="AB96" s="22">
+        <v>57752</v>
+      </c>
+      <c r="AC96" s="22">
+        <v>2120</v>
+      </c>
+      <c r="AD96" s="22">
+        <v>138840</v>
+      </c>
+      <c r="AE96" s="22">
+        <v>3391188</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A97" s="13">
+        <v>43975</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>895</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E97">
+        <v>285</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G97" t="s">
+        <v>864</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>774</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K97" t="s">
+        <v>755</v>
+      </c>
+      <c r="L97" t="s">
+        <v>712</v>
+      </c>
+      <c r="M97">
+        <v>-1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>1249</v>
+      </c>
+      <c r="O97" t="s">
+        <v>937</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>710</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97" t="s">
+        <v>827</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="W97">
+        <v>531</v>
+      </c>
+      <c r="X97" s="22">
+        <v>229858</v>
+      </c>
+      <c r="Y97">
+        <v>50</v>
+      </c>
+      <c r="Z97" s="22">
+        <v>32785</v>
+      </c>
+      <c r="AA97">
+        <v>553</v>
+      </c>
+      <c r="AB97" s="22">
+        <v>56594</v>
+      </c>
+      <c r="AC97" s="22">
+        <v>1639</v>
+      </c>
+      <c r="AD97" s="22">
+        <v>140479</v>
+      </c>
+      <c r="AE97" s="22">
+        <v>3447012</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A98" s="13">
+        <v>43976</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G98" t="s">
+        <v>725</v>
+      </c>
+      <c r="I98">
+        <v>4</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K98" t="s">
+        <v>810</v>
+      </c>
+      <c r="L98" t="s">
+        <v>948</v>
+      </c>
+      <c r="N98" t="s">
+        <v>1256</v>
+      </c>
+      <c r="O98" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q98">
+        <v>6</v>
+      </c>
+      <c r="S98" t="s">
+        <v>1084</v>
+      </c>
+      <c r="U98" t="s">
+        <v>824</v>
+      </c>
+      <c r="V98" t="s">
+        <v>62</v>
+      </c>
+      <c r="W98">
+        <v>300</v>
+      </c>
+      <c r="X98" s="22">
+        <v>230158</v>
+      </c>
+      <c r="Y98">
+        <v>92</v>
+      </c>
+      <c r="Z98" s="22">
+        <v>32877</v>
+      </c>
+      <c r="AA98">
+        <v>541</v>
+      </c>
+      <c r="AB98" s="22">
+        <v>55300</v>
+      </c>
+      <c r="AC98" s="22">
+        <v>1502</v>
+      </c>
+      <c r="AD98" s="22">
+        <v>141981</v>
+      </c>
+      <c r="AE98" s="22">
+        <v>3482253</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A99" s="13">
+        <v>43977</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I99">
+        <v>11</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K99" t="s">
+        <v>810</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1263</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="Q99">
+        <v>12</v>
+      </c>
+      <c r="S99" t="s">
+        <v>1265</v>
+      </c>
+      <c r="U99" t="s">
+        <v>691</v>
+      </c>
+      <c r="V99">
+        <v>-1</v>
+      </c>
+      <c r="W99">
+        <v>397</v>
+      </c>
+      <c r="X99" s="22">
+        <v>230555</v>
+      </c>
+      <c r="Y99">
+        <v>78</v>
+      </c>
+      <c r="Z99" s="22">
+        <v>32955</v>
+      </c>
+      <c r="AA99">
+        <v>521</v>
+      </c>
+      <c r="AB99" s="22">
+        <v>52942</v>
+      </c>
+      <c r="AC99" s="22">
+        <v>2677</v>
+      </c>
+      <c r="AD99" s="22">
+        <v>144658</v>
+      </c>
+      <c r="AE99" s="22">
+        <v>3539927</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A100" s="13">
+        <v>43978</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G100" t="s">
+        <v>766</v>
+      </c>
+      <c r="I100" t="s">
+        <v>859</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1271</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1272</v>
+      </c>
+      <c r="O100">
+        <v>5</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>931</v>
+      </c>
+      <c r="S100" t="s">
+        <v>827</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+      <c r="U100" t="s">
+        <v>710</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>584</v>
+      </c>
+      <c r="X100" s="22">
+        <v>231139</v>
+      </c>
+      <c r="Y100">
+        <v>117</v>
+      </c>
+      <c r="Z100" s="22">
+        <v>33072</v>
+      </c>
+      <c r="AA100">
+        <v>505</v>
+      </c>
+      <c r="AB100" s="22">
+        <v>50966</v>
+      </c>
+      <c r="AC100" s="22">
+        <v>2443</v>
+      </c>
+      <c r="AD100" s="22">
+        <v>147101</v>
+      </c>
+      <c r="AE100" s="22">
+        <v>3607251</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A101" s="13">
+        <v>43979</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>898</v>
+      </c>
+      <c r="J101" t="s">
+        <v>771</v>
+      </c>
+      <c r="K101" t="s">
+        <v>725</v>
+      </c>
+      <c r="L101" t="s">
+        <v>859</v>
+      </c>
+      <c r="N101" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O101" t="s">
+        <v>970</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S101" t="s">
+        <v>810</v>
+      </c>
+      <c r="U101">
+        <v>3</v>
+      </c>
+      <c r="W101">
+        <v>593</v>
+      </c>
+      <c r="X101" s="22">
+        <v>231732</v>
+      </c>
+      <c r="Y101">
+        <v>70</v>
+      </c>
+      <c r="Z101" s="22">
+        <v>33142</v>
+      </c>
+      <c r="AA101">
+        <v>489</v>
+      </c>
+      <c r="AB101" s="22">
+        <v>47986</v>
+      </c>
+      <c r="AC101" s="22">
+        <v>3503</v>
+      </c>
+      <c r="AD101" s="22">
+        <v>150604</v>
+      </c>
+      <c r="AE101" s="22">
+        <v>3683144</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A102" s="13">
+        <v>43980</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L102" t="s">
+        <v>970</v>
+      </c>
+      <c r="M102">
+        <v>-1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O102">
+        <v>-2</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>827</v>
+      </c>
+      <c r="S102" t="s">
+        <v>1283</v>
+      </c>
+      <c r="T102">
+        <v>-1</v>
+      </c>
+      <c r="U102">
+        <v>2</v>
+      </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
+      <c r="W102">
+        <v>516</v>
+      </c>
+      <c r="X102" s="22">
+        <v>232248</v>
+      </c>
+      <c r="Y102">
+        <v>87</v>
+      </c>
+      <c r="Z102" s="22">
+        <v>33229</v>
+      </c>
+      <c r="AA102">
+        <v>475</v>
+      </c>
+      <c r="AB102" s="22">
+        <v>46175</v>
+      </c>
+      <c r="AC102" s="22">
+        <v>2240</v>
+      </c>
+      <c r="AD102" s="22">
+        <v>152844</v>
+      </c>
+      <c r="AE102" s="22">
+        <v>3755279</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A103" s="13">
+        <v>43981</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D103" t="s">
+        <v>811</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>4</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K103" t="s">
+        <v>824</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1271</v>
+      </c>
+      <c r="N103" t="s">
+        <v>1289</v>
+      </c>
+      <c r="Q103">
+        <v>10</v>
+      </c>
+      <c r="S103">
+        <v>8</v>
+      </c>
+      <c r="U103" t="s">
+        <v>810</v>
+      </c>
+      <c r="W103">
+        <v>416</v>
+      </c>
+      <c r="X103" s="22">
+        <v>232664</v>
+      </c>
+      <c r="Y103">
+        <v>111</v>
+      </c>
+      <c r="Z103" s="22">
+        <v>33340</v>
+      </c>
+      <c r="AA103">
+        <v>450</v>
+      </c>
+      <c r="AB103" s="22">
+        <v>43691</v>
+      </c>
+      <c r="AC103" s="22">
+        <v>2789</v>
+      </c>
+      <c r="AD103" s="22">
+        <v>155633</v>
+      </c>
+      <c r="AE103" s="22">
+        <v>3824621</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A104" s="13">
+        <v>43982</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104" t="s">
+        <v>1159</v>
+      </c>
+      <c r="N104" t="s">
+        <v>1293</v>
+      </c>
+      <c r="O104" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>710</v>
+      </c>
+      <c r="S104" t="s">
+        <v>1159</v>
+      </c>
+      <c r="U104" t="s">
+        <v>725</v>
+      </c>
+      <c r="W104">
+        <v>355</v>
+      </c>
+      <c r="X104" s="22">
+        <v>233019</v>
+      </c>
+      <c r="Y104">
+        <v>75</v>
+      </c>
+      <c r="Z104" s="22">
+        <v>33415</v>
+      </c>
+      <c r="AA104">
+        <v>435</v>
+      </c>
+      <c r="AB104" s="22">
+        <v>42075</v>
+      </c>
+      <c r="AC104" s="22">
+        <v>1874</v>
+      </c>
+      <c r="AD104" s="22">
+        <v>157507</v>
+      </c>
+      <c r="AE104" s="22">
+        <v>3878739</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A105" s="13">
+        <v>43983</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>803</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>748</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1297</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1298</v>
+      </c>
+      <c r="N105" t="s">
+        <v>912</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1299</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>824</v>
+      </c>
+      <c r="S105" t="s">
+        <v>859</v>
+      </c>
+      <c r="V105" t="s">
+        <v>725</v>
+      </c>
+      <c r="W105">
+        <v>178</v>
+      </c>
+      <c r="X105" s="22">
+        <v>233197</v>
+      </c>
+      <c r="Y105">
+        <v>60</v>
+      </c>
+      <c r="Z105" s="22">
+        <v>33475</v>
+      </c>
+      <c r="AA105">
+        <v>424</v>
+      </c>
+      <c r="AB105" s="22">
+        <v>41367</v>
+      </c>
+      <c r="AC105">
+        <v>848</v>
+      </c>
+      <c r="AD105" s="22">
+        <v>158355</v>
+      </c>
+      <c r="AE105" s="22">
+        <v>3910133</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A106" s="13">
+        <v>43984</v>
+      </c>
+      <c r="C106" t="s">
+        <v>814</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G106">
+        <v>-1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>810</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K106">
+        <v>4</v>
+      </c>
+      <c r="L106" t="s">
+        <v>732</v>
+      </c>
+      <c r="N106" t="s">
+        <v>948</v>
+      </c>
+      <c r="O106" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>774</v>
+      </c>
+      <c r="S106">
+        <v>-2</v>
+      </c>
+      <c r="U106" t="s">
+        <v>824</v>
+      </c>
+      <c r="W106">
+        <v>318</v>
+      </c>
+      <c r="X106" s="22">
+        <v>233515</v>
+      </c>
+      <c r="Y106">
+        <v>55</v>
+      </c>
+      <c r="Z106" s="22">
+        <v>33530</v>
+      </c>
+      <c r="AA106">
+        <v>408</v>
+      </c>
+      <c r="AB106" s="22">
+        <v>39893</v>
+      </c>
+      <c r="AC106" s="22">
+        <v>1737</v>
+      </c>
+      <c r="AD106" s="22">
+        <v>160092</v>
+      </c>
+      <c r="AE106" s="22">
+        <v>3962292</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A107" s="13">
+        <v>43985</v>
+      </c>
+      <c r="C107" t="s">
+        <v>928</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>859</v>
+      </c>
+      <c r="N107" t="s">
+        <v>961</v>
+      </c>
+      <c r="O107" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q107">
+        <v>12</v>
+      </c>
+      <c r="S107" t="s">
+        <v>1299</v>
+      </c>
+      <c r="W107">
+        <v>321</v>
+      </c>
+      <c r="X107" s="22">
+        <v>233836</v>
+      </c>
+      <c r="Y107">
+        <v>71</v>
+      </c>
+      <c r="Z107" s="22">
+        <v>33601</v>
+      </c>
+      <c r="AA107">
+        <v>353</v>
+      </c>
+      <c r="AB107" s="22">
+        <v>39297</v>
+      </c>
+      <c r="AC107">
+        <v>846</v>
+      </c>
+      <c r="AD107" s="22">
+        <v>160938</v>
+      </c>
+      <c r="AE107" s="22">
+        <v>3999591</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>1309</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11808,10 +13786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAC9E7F-47B3-4BD9-B70E-857F7A17FEA5}">
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19536,22 +21514,1717 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A87" s="13"/>
+      <c r="A87" s="13">
+        <f>Tabelle1!A89</f>
+        <v>43967</v>
+      </c>
+      <c r="B87">
+        <f>IFERROR((IF(LEFT(Tabelle1!B89,1)="(",RIGHT(LEFT(Tabelle1!B89,FIND(")",Tabelle1!B89)-1),LEN(LEFT(Tabelle1!B89,FIND(")",Tabelle1!B89)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f>IFERROR((IF(LEFT(Tabelle1!C89,1)="(",RIGHT(LEFT(Tabelle1!C89,FIND(")",Tabelle1!C89)-1),LEN(LEFT(Tabelle1!C89,FIND(")",Tabelle1!C89)))-2),""))*1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <f>IFERROR((IF(LEFT(Tabelle1!D89,1)="(",RIGHT(LEFT(Tabelle1!D89,FIND(")",Tabelle1!D89)-1),LEN(LEFT(Tabelle1!D89,FIND(")",Tabelle1!D89)))-2),""))*1,0)</f>
+        <v>37</v>
+      </c>
+      <c r="E87">
+        <f>IFERROR((IF(LEFT(Tabelle1!E89,1)="(",RIGHT(LEFT(Tabelle1!E89,FIND(")",Tabelle1!E89)-1),LEN(LEFT(Tabelle1!E89,FIND(")",Tabelle1!E89)))-2),""))*1,0)</f>
+        <v>39</v>
+      </c>
+      <c r="F87">
+        <f>IFERROR((IF(LEFT(Tabelle1!F89,1)="(",RIGHT(LEFT(Tabelle1!F89,FIND(")",Tabelle1!F89)-1),LEN(LEFT(Tabelle1!F89,FIND(")",Tabelle1!F89)))-2),""))*1,0)</f>
+        <v>21</v>
+      </c>
+      <c r="G87">
+        <f>IFERROR((IF(LEFT(Tabelle1!G89,1)="(",RIGHT(LEFT(Tabelle1!G89,FIND(")",Tabelle1!G89)-1),LEN(LEFT(Tabelle1!G89,FIND(")",Tabelle1!G89)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <f>IFERROR((IF(LEFT(Tabelle1!H89,1)="(",RIGHT(LEFT(Tabelle1!H89,FIND(")",Tabelle1!H89)-1),LEN(LEFT(Tabelle1!H89,FIND(")",Tabelle1!H89)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f>IFERROR((IF(LEFT(Tabelle1!I89,1)="(",RIGHT(LEFT(Tabelle1!I89,FIND(")",Tabelle1!I89)-1),LEN(LEFT(Tabelle1!I89,FIND(")",Tabelle1!I89)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <f>IFERROR((IF(LEFT(Tabelle1!J89,1)="(",RIGHT(LEFT(Tabelle1!J89,FIND(")",Tabelle1!J89)-1),LEN(LEFT(Tabelle1!J89,FIND(")",Tabelle1!J89)))-2),""))*1,0)</f>
+        <v>17</v>
+      </c>
+      <c r="K87">
+        <f>IFERROR((IF(LEFT(Tabelle1!K89,1)="(",RIGHT(LEFT(Tabelle1!K89,FIND(")",Tabelle1!K89)-1),LEN(LEFT(Tabelle1!K89,FIND(")",Tabelle1!K89)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L87">
+        <f>IFERROR((IF(LEFT(Tabelle1!L89,1)="(",RIGHT(LEFT(Tabelle1!L89,FIND(")",Tabelle1!L89)-1),LEN(LEFT(Tabelle1!L89,FIND(")",Tabelle1!L89)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <f>IFERROR((IF(LEFT(Tabelle1!M89,1)="(",RIGHT(LEFT(Tabelle1!M89,FIND(")",Tabelle1!M89)-1),LEN(LEFT(Tabelle1!M89,FIND(")",Tabelle1!M89)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f>IFERROR((IF(LEFT(Tabelle1!N89,1)="(",RIGHT(LEFT(Tabelle1!N89,FIND(")",Tabelle1!N89)-1),LEN(LEFT(Tabelle1!N89,FIND(")",Tabelle1!N89)))-2),""))*1,0)</f>
+        <v>12</v>
+      </c>
+      <c r="O87">
+        <f>IFERROR((IF(LEFT(Tabelle1!O89,1)="(",RIGHT(LEFT(Tabelle1!O89,FIND(")",Tabelle1!O89)-1),LEN(LEFT(Tabelle1!O89,FIND(")",Tabelle1!O89)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <f>IFERROR((IF(LEFT(Tabelle1!P89,1)="(",RIGHT(LEFT(Tabelle1!P89,FIND(")",Tabelle1!P89)-1),LEN(LEFT(Tabelle1!P89,FIND(")",Tabelle1!P89)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q89,1)="(",RIGHT(LEFT(Tabelle1!Q89,FIND(")",Tabelle1!Q89)-1),LEN(LEFT(Tabelle1!Q89,FIND(")",Tabelle1!Q89)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <f>IFERROR((IF(LEFT(Tabelle1!R89,1)="(",RIGHT(LEFT(Tabelle1!R89,FIND(")",Tabelle1!R89)-1),LEN(LEFT(Tabelle1!R89,FIND(")",Tabelle1!R89)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <f>IFERROR((IF(LEFT(Tabelle1!S89,1)="(",RIGHT(LEFT(Tabelle1!S89,FIND(")",Tabelle1!S89)-1),LEN(LEFT(Tabelle1!S89,FIND(")",Tabelle1!S89)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="T87">
+        <f>IFERROR((IF(LEFT(Tabelle1!T89,1)="(",RIGHT(LEFT(Tabelle1!T89,FIND(")",Tabelle1!T89)-1),LEN(LEFT(Tabelle1!T89,FIND(")",Tabelle1!T89)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <f>IFERROR((IF(LEFT(Tabelle1!U89,1)="(",RIGHT(LEFT(Tabelle1!U89,FIND(")",Tabelle1!U89)-1),LEN(LEFT(Tabelle1!U89,FIND(")",Tabelle1!U89)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V87">
+        <f>IFERROR((IF(LEFT(Tabelle1!V89,1)="(",RIGHT(LEFT(Tabelle1!V89,FIND(")",Tabelle1!V89)-1),LEN(LEFT(Tabelle1!V89,FIND(")",Tabelle1!V89)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A88" s="13"/>
+      <c r="A88" s="13">
+        <f>Tabelle1!A90</f>
+        <v>43968</v>
+      </c>
+      <c r="B88">
+        <f>IFERROR((IF(LEFT(Tabelle1!B90,1)="(",RIGHT(LEFT(Tabelle1!B90,FIND(")",Tabelle1!B90)-1),LEN(LEFT(Tabelle1!B90,FIND(")",Tabelle1!B90)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f>IFERROR((IF(LEFT(Tabelle1!C90,1)="(",RIGHT(LEFT(Tabelle1!C90,FIND(")",Tabelle1!C90)-1),LEN(LEFT(Tabelle1!C90,FIND(")",Tabelle1!C90)))-2),""))*1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <f>IFERROR((IF(LEFT(Tabelle1!D90,1)="(",RIGHT(LEFT(Tabelle1!D90,FIND(")",Tabelle1!D90)-1),LEN(LEFT(Tabelle1!D90,FIND(")",Tabelle1!D90)))-2),""))*1,0)</f>
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <f>IFERROR((IF(LEFT(Tabelle1!E90,1)="(",RIGHT(LEFT(Tabelle1!E90,FIND(")",Tabelle1!E90)-1),LEN(LEFT(Tabelle1!E90,FIND(")",Tabelle1!E90)))-2),""))*1,0)</f>
+        <v>69</v>
+      </c>
+      <c r="F88">
+        <f>IFERROR((IF(LEFT(Tabelle1!F90,1)="(",RIGHT(LEFT(Tabelle1!F90,FIND(")",Tabelle1!F90)-1),LEN(LEFT(Tabelle1!F90,FIND(")",Tabelle1!F90)))-2),""))*1,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G88">
+        <f>IFERROR((IF(LEFT(Tabelle1!G90,1)="(",RIGHT(LEFT(Tabelle1!G90,FIND(")",Tabelle1!G90)-1),LEN(LEFT(Tabelle1!G90,FIND(")",Tabelle1!G90)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f>IFERROR((IF(LEFT(Tabelle1!H90,1)="(",RIGHT(LEFT(Tabelle1!H90,FIND(")",Tabelle1!H90)-1),LEN(LEFT(Tabelle1!H90,FIND(")",Tabelle1!H90)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f>IFERROR((IF(LEFT(Tabelle1!I90,1)="(",RIGHT(LEFT(Tabelle1!I90,FIND(")",Tabelle1!I90)-1),LEN(LEFT(Tabelle1!I90,FIND(")",Tabelle1!I90)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f>IFERROR((IF(LEFT(Tabelle1!J90,1)="(",RIGHT(LEFT(Tabelle1!J90,FIND(")",Tabelle1!J90)-1),LEN(LEFT(Tabelle1!J90,FIND(")",Tabelle1!J90)))-2),""))*1,0)</f>
+        <v>13</v>
+      </c>
+      <c r="K88">
+        <f>IFERROR((IF(LEFT(Tabelle1!K90,1)="(",RIGHT(LEFT(Tabelle1!K90,FIND(")",Tabelle1!K90)-1),LEN(LEFT(Tabelle1!K90,FIND(")",Tabelle1!K90)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <f>IFERROR((IF(LEFT(Tabelle1!L90,1)="(",RIGHT(LEFT(Tabelle1!L90,FIND(")",Tabelle1!L90)-1),LEN(LEFT(Tabelle1!L90,FIND(")",Tabelle1!L90)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <f>IFERROR((IF(LEFT(Tabelle1!M90,1)="(",RIGHT(LEFT(Tabelle1!M90,FIND(")",Tabelle1!M90)-1),LEN(LEFT(Tabelle1!M90,FIND(")",Tabelle1!M90)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <f>IFERROR((IF(LEFT(Tabelle1!N90,1)="(",RIGHT(LEFT(Tabelle1!N90,FIND(")",Tabelle1!N90)-1),LEN(LEFT(Tabelle1!N90,FIND(")",Tabelle1!N90)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="O88">
+        <f>IFERROR((IF(LEFT(Tabelle1!O90,1)="(",RIGHT(LEFT(Tabelle1!O90,FIND(")",Tabelle1!O90)-1),LEN(LEFT(Tabelle1!O90,FIND(")",Tabelle1!O90)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="P88">
+        <f>IFERROR((IF(LEFT(Tabelle1!P90,1)="(",RIGHT(LEFT(Tabelle1!P90,FIND(")",Tabelle1!P90)-1),LEN(LEFT(Tabelle1!P90,FIND(")",Tabelle1!P90)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q90,1)="(",RIGHT(LEFT(Tabelle1!Q90,FIND(")",Tabelle1!Q90)-1),LEN(LEFT(Tabelle1!Q90,FIND(")",Tabelle1!Q90)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <f>IFERROR((IF(LEFT(Tabelle1!R90,1)="(",RIGHT(LEFT(Tabelle1!R90,FIND(")",Tabelle1!R90)-1),LEN(LEFT(Tabelle1!R90,FIND(")",Tabelle1!R90)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <f>IFERROR((IF(LEFT(Tabelle1!S90,1)="(",RIGHT(LEFT(Tabelle1!S90,FIND(")",Tabelle1!S90)-1),LEN(LEFT(Tabelle1!S90,FIND(")",Tabelle1!S90)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="T88">
+        <f>IFERROR((IF(LEFT(Tabelle1!T90,1)="(",RIGHT(LEFT(Tabelle1!T90,FIND(")",Tabelle1!T90)-1),LEN(LEFT(Tabelle1!T90,FIND(")",Tabelle1!T90)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <f>IFERROR((IF(LEFT(Tabelle1!U90,1)="(",RIGHT(LEFT(Tabelle1!U90,FIND(")",Tabelle1!U90)-1),LEN(LEFT(Tabelle1!U90,FIND(")",Tabelle1!U90)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V88">
+        <f>IFERROR((IF(LEFT(Tabelle1!V90,1)="(",RIGHT(LEFT(Tabelle1!V90,FIND(")",Tabelle1!V90)-1),LEN(LEFT(Tabelle1!V90,FIND(")",Tabelle1!V90)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A89" s="13"/>
+      <c r="A89" s="13">
+        <f>Tabelle1!A91</f>
+        <v>43969</v>
+      </c>
+      <c r="B89">
+        <f>IFERROR((IF(LEFT(Tabelle1!B91,1)="(",RIGHT(LEFT(Tabelle1!B91,FIND(")",Tabelle1!B91)-1),LEN(LEFT(Tabelle1!B91,FIND(")",Tabelle1!B91)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f>IFERROR((IF(LEFT(Tabelle1!C91,1)="(",RIGHT(LEFT(Tabelle1!C91,FIND(")",Tabelle1!C91)-1),LEN(LEFT(Tabelle1!C91,FIND(")",Tabelle1!C91)))-2),""))*1,0)</f>
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <f>IFERROR((IF(LEFT(Tabelle1!D91,1)="(",RIGHT(LEFT(Tabelle1!D91,FIND(")",Tabelle1!D91)-1),LEN(LEFT(Tabelle1!D91,FIND(")",Tabelle1!D91)))-2),""))*1,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <f>IFERROR((IF(LEFT(Tabelle1!E91,1)="(",RIGHT(LEFT(Tabelle1!E91,FIND(")",Tabelle1!E91)-1),LEN(LEFT(Tabelle1!E91,FIND(")",Tabelle1!E91)))-2),""))*1,0)</f>
+        <v>24</v>
+      </c>
+      <c r="F89">
+        <f>IFERROR((IF(LEFT(Tabelle1!F91,1)="(",RIGHT(LEFT(Tabelle1!F91,FIND(")",Tabelle1!F91)-1),LEN(LEFT(Tabelle1!F91,FIND(")",Tabelle1!F91)))-2),""))*1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="G89">
+        <f>IFERROR((IF(LEFT(Tabelle1!G91,1)="(",RIGHT(LEFT(Tabelle1!G91,FIND(")",Tabelle1!G91)-1),LEN(LEFT(Tabelle1!G91,FIND(")",Tabelle1!G91)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f>IFERROR((IF(LEFT(Tabelle1!H91,1)="(",RIGHT(LEFT(Tabelle1!H91,FIND(")",Tabelle1!H91)-1),LEN(LEFT(Tabelle1!H91,FIND(")",Tabelle1!H91)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <f>IFERROR((IF(LEFT(Tabelle1!I91,1)="(",RIGHT(LEFT(Tabelle1!I91,FIND(")",Tabelle1!I91)-1),LEN(LEFT(Tabelle1!I91,FIND(")",Tabelle1!I91)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <f>IFERROR((IF(LEFT(Tabelle1!J91,1)="(",RIGHT(LEFT(Tabelle1!J91,FIND(")",Tabelle1!J91)-1),LEN(LEFT(Tabelle1!J91,FIND(")",Tabelle1!J91)))-2),""))*1,0)</f>
+        <v>13</v>
+      </c>
+      <c r="K89">
+        <f>IFERROR((IF(LEFT(Tabelle1!K91,1)="(",RIGHT(LEFT(Tabelle1!K91,FIND(")",Tabelle1!K91)-1),LEN(LEFT(Tabelle1!K91,FIND(")",Tabelle1!K91)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f>IFERROR((IF(LEFT(Tabelle1!L91,1)="(",RIGHT(LEFT(Tabelle1!L91,FIND(")",Tabelle1!L91)-1),LEN(LEFT(Tabelle1!L91,FIND(")",Tabelle1!L91)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <f>IFERROR((IF(LEFT(Tabelle1!M91,1)="(",RIGHT(LEFT(Tabelle1!M91,FIND(")",Tabelle1!M91)-1),LEN(LEFT(Tabelle1!M91,FIND(")",Tabelle1!M91)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <f>IFERROR((IF(LEFT(Tabelle1!N91,1)="(",RIGHT(LEFT(Tabelle1!N91,FIND(")",Tabelle1!N91)-1),LEN(LEFT(Tabelle1!N91,FIND(")",Tabelle1!N91)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="O89">
+        <f>IFERROR((IF(LEFT(Tabelle1!O91,1)="(",RIGHT(LEFT(Tabelle1!O91,FIND(")",Tabelle1!O91)-1),LEN(LEFT(Tabelle1!O91,FIND(")",Tabelle1!O91)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="P89">
+        <f>IFERROR((IF(LEFT(Tabelle1!P91,1)="(",RIGHT(LEFT(Tabelle1!P91,FIND(")",Tabelle1!P91)-1),LEN(LEFT(Tabelle1!P91,FIND(")",Tabelle1!P91)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q91,1)="(",RIGHT(LEFT(Tabelle1!Q91,FIND(")",Tabelle1!Q91)-1),LEN(LEFT(Tabelle1!Q91,FIND(")",Tabelle1!Q91)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <f>IFERROR((IF(LEFT(Tabelle1!R91,1)="(",RIGHT(LEFT(Tabelle1!R91,FIND(")",Tabelle1!R91)-1),LEN(LEFT(Tabelle1!R91,FIND(")",Tabelle1!R91)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <f>IFERROR((IF(LEFT(Tabelle1!S91,1)="(",RIGHT(LEFT(Tabelle1!S91,FIND(")",Tabelle1!S91)-1),LEN(LEFT(Tabelle1!S91,FIND(")",Tabelle1!S91)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <f>IFERROR((IF(LEFT(Tabelle1!T91,1)="(",RIGHT(LEFT(Tabelle1!T91,FIND(")",Tabelle1!T91)-1),LEN(LEFT(Tabelle1!T91,FIND(")",Tabelle1!T91)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <f>IFERROR((IF(LEFT(Tabelle1!U91,1)="(",RIGHT(LEFT(Tabelle1!U91,FIND(")",Tabelle1!U91)-1),LEN(LEFT(Tabelle1!U91,FIND(")",Tabelle1!U91)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <f>IFERROR((IF(LEFT(Tabelle1!V91,1)="(",RIGHT(LEFT(Tabelle1!V91,FIND(")",Tabelle1!V91)-1),LEN(LEFT(Tabelle1!V91,FIND(")",Tabelle1!V91)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A90" s="13"/>
+      <c r="A90" s="13">
+        <f>Tabelle1!A92</f>
+        <v>43970</v>
+      </c>
+      <c r="B90">
+        <f>IFERROR((IF(LEFT(Tabelle1!B92,1)="(",RIGHT(LEFT(Tabelle1!B92,FIND(")",Tabelle1!B92)-1),LEN(LEFT(Tabelle1!B92,FIND(")",Tabelle1!B92)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <f>IFERROR((IF(LEFT(Tabelle1!C92,1)="(",RIGHT(LEFT(Tabelle1!C92,FIND(")",Tabelle1!C92)-1),LEN(LEFT(Tabelle1!C92,FIND(")",Tabelle1!C92)))-2),""))*1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <f>IFERROR((IF(LEFT(Tabelle1!D92,1)="(",RIGHT(LEFT(Tabelle1!D92,FIND(")",Tabelle1!D92)-1),LEN(LEFT(Tabelle1!D92,FIND(")",Tabelle1!D92)))-2),""))*1,0)</f>
+        <v>47</v>
+      </c>
+      <c r="E90">
+        <f>IFERROR((IF(LEFT(Tabelle1!E92,1)="(",RIGHT(LEFT(Tabelle1!E92,FIND(")",Tabelle1!E92)-1),LEN(LEFT(Tabelle1!E92,FIND(")",Tabelle1!E92)))-2),""))*1,0)</f>
+        <v>54</v>
+      </c>
+      <c r="F90">
+        <f>IFERROR((IF(LEFT(Tabelle1!F92,1)="(",RIGHT(LEFT(Tabelle1!F92,FIND(")",Tabelle1!F92)-1),LEN(LEFT(Tabelle1!F92,FIND(")",Tabelle1!F92)))-2),""))*1,0)</f>
+        <v>17</v>
+      </c>
+      <c r="G90">
+        <f>IFERROR((IF(LEFT(Tabelle1!G92,1)="(",RIGHT(LEFT(Tabelle1!G92,FIND(")",Tabelle1!G92)-1),LEN(LEFT(Tabelle1!G92,FIND(")",Tabelle1!G92)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <f>IFERROR((IF(LEFT(Tabelle1!H92,1)="(",RIGHT(LEFT(Tabelle1!H92,FIND(")",Tabelle1!H92)-1),LEN(LEFT(Tabelle1!H92,FIND(")",Tabelle1!H92)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f>IFERROR((IF(LEFT(Tabelle1!I92,1)="(",RIGHT(LEFT(Tabelle1!I92,FIND(")",Tabelle1!I92)-1),LEN(LEFT(Tabelle1!I92,FIND(")",Tabelle1!I92)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f>IFERROR((IF(LEFT(Tabelle1!J92,1)="(",RIGHT(LEFT(Tabelle1!J92,FIND(")",Tabelle1!J92)-1),LEN(LEFT(Tabelle1!J92,FIND(")",Tabelle1!J92)))-2),""))*1,0)</f>
+        <v>11</v>
+      </c>
+      <c r="K90">
+        <f>IFERROR((IF(LEFT(Tabelle1!K92,1)="(",RIGHT(LEFT(Tabelle1!K92,FIND(")",Tabelle1!K92)-1),LEN(LEFT(Tabelle1!K92,FIND(")",Tabelle1!K92)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <f>IFERROR((IF(LEFT(Tabelle1!L92,1)="(",RIGHT(LEFT(Tabelle1!L92,FIND(")",Tabelle1!L92)-1),LEN(LEFT(Tabelle1!L92,FIND(")",Tabelle1!L92)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <f>IFERROR((IF(LEFT(Tabelle1!M92,1)="(",RIGHT(LEFT(Tabelle1!M92,FIND(")",Tabelle1!M92)-1),LEN(LEFT(Tabelle1!M92,FIND(")",Tabelle1!M92)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <f>IFERROR((IF(LEFT(Tabelle1!N92,1)="(",RIGHT(LEFT(Tabelle1!N92,FIND(")",Tabelle1!N92)-1),LEN(LEFT(Tabelle1!N92,FIND(")",Tabelle1!N92)))-2),""))*1,0)</f>
+        <v>12</v>
+      </c>
+      <c r="O90">
+        <f>IFERROR((IF(LEFT(Tabelle1!O92,1)="(",RIGHT(LEFT(Tabelle1!O92,FIND(")",Tabelle1!O92)-1),LEN(LEFT(Tabelle1!O92,FIND(")",Tabelle1!O92)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <f>IFERROR((IF(LEFT(Tabelle1!P92,1)="(",RIGHT(LEFT(Tabelle1!P92,FIND(")",Tabelle1!P92)-1),LEN(LEFT(Tabelle1!P92,FIND(")",Tabelle1!P92)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q92,1)="(",RIGHT(LEFT(Tabelle1!Q92,FIND(")",Tabelle1!Q92)-1),LEN(LEFT(Tabelle1!Q92,FIND(")",Tabelle1!Q92)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <f>IFERROR((IF(LEFT(Tabelle1!R92,1)="(",RIGHT(LEFT(Tabelle1!R92,FIND(")",Tabelle1!R92)-1),LEN(LEFT(Tabelle1!R92,FIND(")",Tabelle1!R92)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <f>IFERROR((IF(LEFT(Tabelle1!S92,1)="(",RIGHT(LEFT(Tabelle1!S92,FIND(")",Tabelle1!S92)-1),LEN(LEFT(Tabelle1!S92,FIND(")",Tabelle1!S92)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="T90">
+        <f>IFERROR((IF(LEFT(Tabelle1!T92,1)="(",RIGHT(LEFT(Tabelle1!T92,FIND(")",Tabelle1!T92)-1),LEN(LEFT(Tabelle1!T92,FIND(")",Tabelle1!T92)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <f>IFERROR((IF(LEFT(Tabelle1!U92,1)="(",RIGHT(LEFT(Tabelle1!U92,FIND(")",Tabelle1!U92)-1),LEN(LEFT(Tabelle1!U92,FIND(")",Tabelle1!U92)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V90">
+        <f>IFERROR((IF(LEFT(Tabelle1!V92,1)="(",RIGHT(LEFT(Tabelle1!V92,FIND(")",Tabelle1!V92)-1),LEN(LEFT(Tabelle1!V92,FIND(")",Tabelle1!V92)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A91" s="13"/>
+      <c r="A91" s="13">
+        <f>Tabelle1!A93</f>
+        <v>43971</v>
+      </c>
+      <c r="B91">
+        <f>IFERROR((IF(LEFT(Tabelle1!B93,1)="(",RIGHT(LEFT(Tabelle1!B93,FIND(")",Tabelle1!B93)-1),LEN(LEFT(Tabelle1!B93,FIND(")",Tabelle1!B93)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <f>IFERROR((IF(LEFT(Tabelle1!C93,1)="(",RIGHT(LEFT(Tabelle1!C93,FIND(")",Tabelle1!C93)-1),LEN(LEFT(Tabelle1!C93,FIND(")",Tabelle1!C93)))-2),""))*1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <f>IFERROR((IF(LEFT(Tabelle1!D93,1)="(",RIGHT(LEFT(Tabelle1!D93,FIND(")",Tabelle1!D93)-1),LEN(LEFT(Tabelle1!D93,FIND(")",Tabelle1!D93)))-2),""))*1,0)</f>
+        <v>39</v>
+      </c>
+      <c r="E91">
+        <f>IFERROR((IF(LEFT(Tabelle1!E93,1)="(",RIGHT(LEFT(Tabelle1!E93,FIND(")",Tabelle1!E93)-1),LEN(LEFT(Tabelle1!E93,FIND(")",Tabelle1!E93)))-2),""))*1,0)</f>
+        <v>65</v>
+      </c>
+      <c r="F91">
+        <f>IFERROR((IF(LEFT(Tabelle1!F93,1)="(",RIGHT(LEFT(Tabelle1!F93,FIND(")",Tabelle1!F93)-1),LEN(LEFT(Tabelle1!F93,FIND(")",Tabelle1!F93)))-2),""))*1,0)</f>
+        <v>12</v>
+      </c>
+      <c r="G91">
+        <f>IFERROR((IF(LEFT(Tabelle1!G93,1)="(",RIGHT(LEFT(Tabelle1!G93,FIND(")",Tabelle1!G93)-1),LEN(LEFT(Tabelle1!G93,FIND(")",Tabelle1!G93)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f>IFERROR((IF(LEFT(Tabelle1!H93,1)="(",RIGHT(LEFT(Tabelle1!H93,FIND(")",Tabelle1!H93)-1),LEN(LEFT(Tabelle1!H93,FIND(")",Tabelle1!H93)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f>IFERROR((IF(LEFT(Tabelle1!I93,1)="(",RIGHT(LEFT(Tabelle1!I93,FIND(")",Tabelle1!I93)-1),LEN(LEFT(Tabelle1!I93,FIND(")",Tabelle1!I93)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <f>IFERROR((IF(LEFT(Tabelle1!J93,1)="(",RIGHT(LEFT(Tabelle1!J93,FIND(")",Tabelle1!J93)-1),LEN(LEFT(Tabelle1!J93,FIND(")",Tabelle1!J93)))-2),""))*1,0)</f>
+        <v>11</v>
+      </c>
+      <c r="K91">
+        <f>IFERROR((IF(LEFT(Tabelle1!K93,1)="(",RIGHT(LEFT(Tabelle1!K93,FIND(")",Tabelle1!K93)-1),LEN(LEFT(Tabelle1!K93,FIND(")",Tabelle1!K93)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <f>IFERROR((IF(LEFT(Tabelle1!L93,1)="(",RIGHT(LEFT(Tabelle1!L93,FIND(")",Tabelle1!L93)-1),LEN(LEFT(Tabelle1!L93,FIND(")",Tabelle1!L93)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M91">
+        <f>IFERROR((IF(LEFT(Tabelle1!M93,1)="(",RIGHT(LEFT(Tabelle1!M93,FIND(")",Tabelle1!M93)-1),LEN(LEFT(Tabelle1!M93,FIND(")",Tabelle1!M93)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <f>IFERROR((IF(LEFT(Tabelle1!N93,1)="(",RIGHT(LEFT(Tabelle1!N93,FIND(")",Tabelle1!N93)-1),LEN(LEFT(Tabelle1!N93,FIND(")",Tabelle1!N93)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O91">
+        <f>IFERROR((IF(LEFT(Tabelle1!O93,1)="(",RIGHT(LEFT(Tabelle1!O93,FIND(")",Tabelle1!O93)-1),LEN(LEFT(Tabelle1!O93,FIND(")",Tabelle1!O93)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <f>IFERROR((IF(LEFT(Tabelle1!P93,1)="(",RIGHT(LEFT(Tabelle1!P93,FIND(")",Tabelle1!P93)-1),LEN(LEFT(Tabelle1!P93,FIND(")",Tabelle1!P93)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q93,1)="(",RIGHT(LEFT(Tabelle1!Q93,FIND(")",Tabelle1!Q93)-1),LEN(LEFT(Tabelle1!Q93,FIND(")",Tabelle1!Q93)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <f>IFERROR((IF(LEFT(Tabelle1!R93,1)="(",RIGHT(LEFT(Tabelle1!R93,FIND(")",Tabelle1!R93)-1),LEN(LEFT(Tabelle1!R93,FIND(")",Tabelle1!R93)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <f>IFERROR((IF(LEFT(Tabelle1!S93,1)="(",RIGHT(LEFT(Tabelle1!S93,FIND(")",Tabelle1!S93)-1),LEN(LEFT(Tabelle1!S93,FIND(")",Tabelle1!S93)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="T91">
+        <f>IFERROR((IF(LEFT(Tabelle1!T93,1)="(",RIGHT(LEFT(Tabelle1!T93,FIND(")",Tabelle1!T93)-1),LEN(LEFT(Tabelle1!T93,FIND(")",Tabelle1!T93)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U91">
+        <f>IFERROR((IF(LEFT(Tabelle1!U93,1)="(",RIGHT(LEFT(Tabelle1!U93,FIND(")",Tabelle1!U93)-1),LEN(LEFT(Tabelle1!U93,FIND(")",Tabelle1!U93)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <f>IFERROR((IF(LEFT(Tabelle1!V93,1)="(",RIGHT(LEFT(Tabelle1!V93,FIND(")",Tabelle1!V93)-1),LEN(LEFT(Tabelle1!V93,FIND(")",Tabelle1!V93)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A92" s="13"/>
+      <c r="A92" s="13">
+        <f>Tabelle1!A94</f>
+        <v>43972</v>
+      </c>
+      <c r="B92">
+        <f>IFERROR((IF(LEFT(Tabelle1!B94,1)="(",RIGHT(LEFT(Tabelle1!B94,FIND(")",Tabelle1!B94)-1),LEN(LEFT(Tabelle1!B94,FIND(")",Tabelle1!B94)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <f>IFERROR((IF(LEFT(Tabelle1!C94,1)="(",RIGHT(LEFT(Tabelle1!C94,FIND(")",Tabelle1!C94)-1),LEN(LEFT(Tabelle1!C94,FIND(")",Tabelle1!C94)))-2),""))*1,0)</f>
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <f>IFERROR((IF(LEFT(Tabelle1!D94,1)="(",RIGHT(LEFT(Tabelle1!D94,FIND(")",Tabelle1!D94)-1),LEN(LEFT(Tabelle1!D94,FIND(")",Tabelle1!D94)))-2),""))*1,0)</f>
+        <v>24</v>
+      </c>
+      <c r="E92">
+        <f>IFERROR((IF(LEFT(Tabelle1!E94,1)="(",RIGHT(LEFT(Tabelle1!E94,FIND(")",Tabelle1!E94)-1),LEN(LEFT(Tabelle1!E94,FIND(")",Tabelle1!E94)))-2),""))*1,0)</f>
+        <v>65</v>
+      </c>
+      <c r="F92">
+        <f>IFERROR((IF(LEFT(Tabelle1!F94,1)="(",RIGHT(LEFT(Tabelle1!F94,FIND(")",Tabelle1!F94)-1),LEN(LEFT(Tabelle1!F94,FIND(")",Tabelle1!F94)))-2),""))*1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="G92">
+        <f>IFERROR((IF(LEFT(Tabelle1!G94,1)="(",RIGHT(LEFT(Tabelle1!G94,FIND(")",Tabelle1!G94)-1),LEN(LEFT(Tabelle1!G94,FIND(")",Tabelle1!G94)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f>IFERROR((IF(LEFT(Tabelle1!H94,1)="(",RIGHT(LEFT(Tabelle1!H94,FIND(")",Tabelle1!H94)-1),LEN(LEFT(Tabelle1!H94,FIND(")",Tabelle1!H94)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f>IFERROR((IF(LEFT(Tabelle1!I94,1)="(",RIGHT(LEFT(Tabelle1!I94,FIND(")",Tabelle1!I94)-1),LEN(LEFT(Tabelle1!I94,FIND(")",Tabelle1!I94)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <f>IFERROR((IF(LEFT(Tabelle1!J94,1)="(",RIGHT(LEFT(Tabelle1!J94,FIND(")",Tabelle1!J94)-1),LEN(LEFT(Tabelle1!J94,FIND(")",Tabelle1!J94)))-2),""))*1,0)</f>
+        <v>17</v>
+      </c>
+      <c r="K92">
+        <f>IFERROR((IF(LEFT(Tabelle1!K94,1)="(",RIGHT(LEFT(Tabelle1!K94,FIND(")",Tabelle1!K94)-1),LEN(LEFT(Tabelle1!K94,FIND(")",Tabelle1!K94)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <f>IFERROR((IF(LEFT(Tabelle1!L94,1)="(",RIGHT(LEFT(Tabelle1!L94,FIND(")",Tabelle1!L94)-1),LEN(LEFT(Tabelle1!L94,FIND(")",Tabelle1!L94)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <f>IFERROR((IF(LEFT(Tabelle1!M94,1)="(",RIGHT(LEFT(Tabelle1!M94,FIND(")",Tabelle1!M94)-1),LEN(LEFT(Tabelle1!M94,FIND(")",Tabelle1!M94)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <f>IFERROR((IF(LEFT(Tabelle1!N94,1)="(",RIGHT(LEFT(Tabelle1!N94,FIND(")",Tabelle1!N94)-1),LEN(LEFT(Tabelle1!N94,FIND(")",Tabelle1!N94)))-2),""))*1,0)</f>
+        <v>15</v>
+      </c>
+      <c r="O92">
+        <f>IFERROR((IF(LEFT(Tabelle1!O94,1)="(",RIGHT(LEFT(Tabelle1!O94,FIND(")",Tabelle1!O94)-1),LEN(LEFT(Tabelle1!O94,FIND(")",Tabelle1!O94)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="P92">
+        <f>IFERROR((IF(LEFT(Tabelle1!P94,1)="(",RIGHT(LEFT(Tabelle1!P94,FIND(")",Tabelle1!P94)-1),LEN(LEFT(Tabelle1!P94,FIND(")",Tabelle1!P94)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q94,1)="(",RIGHT(LEFT(Tabelle1!Q94,FIND(")",Tabelle1!Q94)-1),LEN(LEFT(Tabelle1!Q94,FIND(")",Tabelle1!Q94)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <f>IFERROR((IF(LEFT(Tabelle1!R94,1)="(",RIGHT(LEFT(Tabelle1!R94,FIND(")",Tabelle1!R94)-1),LEN(LEFT(Tabelle1!R94,FIND(")",Tabelle1!R94)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <f>IFERROR((IF(LEFT(Tabelle1!S94,1)="(",RIGHT(LEFT(Tabelle1!S94,FIND(")",Tabelle1!S94)-1),LEN(LEFT(Tabelle1!S94,FIND(")",Tabelle1!S94)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <f>IFERROR((IF(LEFT(Tabelle1!T94,1)="(",RIGHT(LEFT(Tabelle1!T94,FIND(")",Tabelle1!T94)-1),LEN(LEFT(Tabelle1!T94,FIND(")",Tabelle1!T94)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <f>IFERROR((IF(LEFT(Tabelle1!U94,1)="(",RIGHT(LEFT(Tabelle1!U94,FIND(")",Tabelle1!U94)-1),LEN(LEFT(Tabelle1!U94,FIND(")",Tabelle1!U94)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <f>IFERROR((IF(LEFT(Tabelle1!V94,1)="(",RIGHT(LEFT(Tabelle1!V94,FIND(")",Tabelle1!V94)-1),LEN(LEFT(Tabelle1!V94,FIND(")",Tabelle1!V94)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A93" s="13">
+        <f>Tabelle1!A95</f>
+        <v>43973</v>
+      </c>
+      <c r="B93">
+        <f>IFERROR((IF(LEFT(Tabelle1!B95,1)="(",RIGHT(LEFT(Tabelle1!B95,FIND(")",Tabelle1!B95)-1),LEN(LEFT(Tabelle1!B95,FIND(")",Tabelle1!B95)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f>IFERROR((IF(LEFT(Tabelle1!C95,1)="(",RIGHT(LEFT(Tabelle1!C95,FIND(")",Tabelle1!C95)-1),LEN(LEFT(Tabelle1!C95,FIND(")",Tabelle1!C95)))-2),""))*1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <f>IFERROR((IF(LEFT(Tabelle1!D95,1)="(",RIGHT(LEFT(Tabelle1!D95,FIND(")",Tabelle1!D95)-1),LEN(LEFT(Tabelle1!D95,FIND(")",Tabelle1!D95)))-2),""))*1,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <f>IFERROR((IF(LEFT(Tabelle1!E95,1)="(",RIGHT(LEFT(Tabelle1!E95,FIND(")",Tabelle1!E95)-1),LEN(LEFT(Tabelle1!E95,FIND(")",Tabelle1!E95)))-2),""))*1,0)</f>
+        <v>57</v>
+      </c>
+      <c r="F93">
+        <f>IFERROR((IF(LEFT(Tabelle1!F95,1)="(",RIGHT(LEFT(Tabelle1!F95,FIND(")",Tabelle1!F95)-1),LEN(LEFT(Tabelle1!F95,FIND(")",Tabelle1!F95)))-2),""))*1,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G93">
+        <f>IFERROR((IF(LEFT(Tabelle1!G95,1)="(",RIGHT(LEFT(Tabelle1!G95,FIND(")",Tabelle1!G95)-1),LEN(LEFT(Tabelle1!G95,FIND(")",Tabelle1!G95)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f>IFERROR((IF(LEFT(Tabelle1!H95,1)="(",RIGHT(LEFT(Tabelle1!H95,FIND(")",Tabelle1!H95)-1),LEN(LEFT(Tabelle1!H95,FIND(")",Tabelle1!H95)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f>IFERROR((IF(LEFT(Tabelle1!I95,1)="(",RIGHT(LEFT(Tabelle1!I95,FIND(")",Tabelle1!I95)-1),LEN(LEFT(Tabelle1!I95,FIND(")",Tabelle1!I95)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <f>IFERROR((IF(LEFT(Tabelle1!J95,1)="(",RIGHT(LEFT(Tabelle1!J95,FIND(")",Tabelle1!J95)-1),LEN(LEFT(Tabelle1!J95,FIND(")",Tabelle1!J95)))-2),""))*1,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K93">
+        <f>IFERROR((IF(LEFT(Tabelle1!K95,1)="(",RIGHT(LEFT(Tabelle1!K95,FIND(")",Tabelle1!K95)-1),LEN(LEFT(Tabelle1!K95,FIND(")",Tabelle1!K95)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f>IFERROR((IF(LEFT(Tabelle1!L95,1)="(",RIGHT(LEFT(Tabelle1!L95,FIND(")",Tabelle1!L95)-1),LEN(LEFT(Tabelle1!L95,FIND(")",Tabelle1!L95)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="M93">
+        <f>IFERROR((IF(LEFT(Tabelle1!M95,1)="(",RIGHT(LEFT(Tabelle1!M95,FIND(")",Tabelle1!M95)-1),LEN(LEFT(Tabelle1!M95,FIND(")",Tabelle1!M95)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <f>IFERROR((IF(LEFT(Tabelle1!N95,1)="(",RIGHT(LEFT(Tabelle1!N95,FIND(")",Tabelle1!N95)-1),LEN(LEFT(Tabelle1!N95,FIND(")",Tabelle1!N95)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O93">
+        <f>IFERROR((IF(LEFT(Tabelle1!O95,1)="(",RIGHT(LEFT(Tabelle1!O95,FIND(")",Tabelle1!O95)-1),LEN(LEFT(Tabelle1!O95,FIND(")",Tabelle1!O95)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="P93">
+        <f>IFERROR((IF(LEFT(Tabelle1!P95,1)="(",RIGHT(LEFT(Tabelle1!P95,FIND(")",Tabelle1!P95)-1),LEN(LEFT(Tabelle1!P95,FIND(")",Tabelle1!P95)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q95,1)="(",RIGHT(LEFT(Tabelle1!Q95,FIND(")",Tabelle1!Q95)-1),LEN(LEFT(Tabelle1!Q95,FIND(")",Tabelle1!Q95)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <f>IFERROR((IF(LEFT(Tabelle1!R95,1)="(",RIGHT(LEFT(Tabelle1!R95,FIND(")",Tabelle1!R95)-1),LEN(LEFT(Tabelle1!R95,FIND(")",Tabelle1!R95)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <f>IFERROR((IF(LEFT(Tabelle1!S95,1)="(",RIGHT(LEFT(Tabelle1!S95,FIND(")",Tabelle1!S95)-1),LEN(LEFT(Tabelle1!S95,FIND(")",Tabelle1!S95)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="T93">
+        <f>IFERROR((IF(LEFT(Tabelle1!T95,1)="(",RIGHT(LEFT(Tabelle1!T95,FIND(")",Tabelle1!T95)-1),LEN(LEFT(Tabelle1!T95,FIND(")",Tabelle1!T95)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <f>IFERROR((IF(LEFT(Tabelle1!U95,1)="(",RIGHT(LEFT(Tabelle1!U95,FIND(")",Tabelle1!U95)-1),LEN(LEFT(Tabelle1!U95,FIND(")",Tabelle1!U95)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <f>IFERROR((IF(LEFT(Tabelle1!V95,1)="(",RIGHT(LEFT(Tabelle1!V95,FIND(")",Tabelle1!V95)-1),LEN(LEFT(Tabelle1!V95,FIND(")",Tabelle1!V95)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A94" s="13">
+        <f>Tabelle1!A96</f>
+        <v>43974</v>
+      </c>
+      <c r="B94">
+        <f>IFERROR((IF(LEFT(Tabelle1!B96,1)="(",RIGHT(LEFT(Tabelle1!B96,FIND(")",Tabelle1!B96)-1),LEN(LEFT(Tabelle1!B96,FIND(")",Tabelle1!B96)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f>IFERROR((IF(LEFT(Tabelle1!C96,1)="(",RIGHT(LEFT(Tabelle1!C96,FIND(")",Tabelle1!C96)-1),LEN(LEFT(Tabelle1!C96,FIND(")",Tabelle1!C96)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <f>IFERROR((IF(LEFT(Tabelle1!D96,1)="(",RIGHT(LEFT(Tabelle1!D96,FIND(")",Tabelle1!D96)-1),LEN(LEFT(Tabelle1!D96,FIND(")",Tabelle1!D96)))-2),""))*1,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E94">
+        <f>IFERROR((IF(LEFT(Tabelle1!E96,1)="(",RIGHT(LEFT(Tabelle1!E96,FIND(")",Tabelle1!E96)-1),LEN(LEFT(Tabelle1!E96,FIND(")",Tabelle1!E96)))-2),""))*1,0)</f>
+        <v>56</v>
+      </c>
+      <c r="F94">
+        <f>IFERROR((IF(LEFT(Tabelle1!F96,1)="(",RIGHT(LEFT(Tabelle1!F96,FIND(")",Tabelle1!F96)-1),LEN(LEFT(Tabelle1!F96,FIND(")",Tabelle1!F96)))-2),""))*1,0)</f>
+        <v>11</v>
+      </c>
+      <c r="G94">
+        <f>IFERROR((IF(LEFT(Tabelle1!G96,1)="(",RIGHT(LEFT(Tabelle1!G96,FIND(")",Tabelle1!G96)-1),LEN(LEFT(Tabelle1!G96,FIND(")",Tabelle1!G96)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <f>IFERROR((IF(LEFT(Tabelle1!H96,1)="(",RIGHT(LEFT(Tabelle1!H96,FIND(")",Tabelle1!H96)-1),LEN(LEFT(Tabelle1!H96,FIND(")",Tabelle1!H96)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f>IFERROR((IF(LEFT(Tabelle1!I96,1)="(",RIGHT(LEFT(Tabelle1!I96,FIND(")",Tabelle1!I96)-1),LEN(LEFT(Tabelle1!I96,FIND(")",Tabelle1!I96)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <f>IFERROR((IF(LEFT(Tabelle1!J96,1)="(",RIGHT(LEFT(Tabelle1!J96,FIND(")",Tabelle1!J96)-1),LEN(LEFT(Tabelle1!J96,FIND(")",Tabelle1!J96)))-2),""))*1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="K94">
+        <f>IFERROR((IF(LEFT(Tabelle1!K96,1)="(",RIGHT(LEFT(Tabelle1!K96,FIND(")",Tabelle1!K96)-1),LEN(LEFT(Tabelle1!K96,FIND(")",Tabelle1!K96)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <f>IFERROR((IF(LEFT(Tabelle1!L96,1)="(",RIGHT(LEFT(Tabelle1!L96,FIND(")",Tabelle1!L96)-1),LEN(LEFT(Tabelle1!L96,FIND(")",Tabelle1!L96)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <f>IFERROR((IF(LEFT(Tabelle1!M96,1)="(",RIGHT(LEFT(Tabelle1!M96,FIND(")",Tabelle1!M96)-1),LEN(LEFT(Tabelle1!M96,FIND(")",Tabelle1!M96)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <f>IFERROR((IF(LEFT(Tabelle1!N96,1)="(",RIGHT(LEFT(Tabelle1!N96,FIND(")",Tabelle1!N96)-1),LEN(LEFT(Tabelle1!N96,FIND(")",Tabelle1!N96)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O94">
+        <f>IFERROR((IF(LEFT(Tabelle1!O96,1)="(",RIGHT(LEFT(Tabelle1!O96,FIND(")",Tabelle1!O96)-1),LEN(LEFT(Tabelle1!O96,FIND(")",Tabelle1!O96)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <f>IFERROR((IF(LEFT(Tabelle1!P96,1)="(",RIGHT(LEFT(Tabelle1!P96,FIND(")",Tabelle1!P96)-1),LEN(LEFT(Tabelle1!P96,FIND(")",Tabelle1!P96)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q96,1)="(",RIGHT(LEFT(Tabelle1!Q96,FIND(")",Tabelle1!Q96)-1),LEN(LEFT(Tabelle1!Q96,FIND(")",Tabelle1!Q96)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f>IFERROR((IF(LEFT(Tabelle1!R96,1)="(",RIGHT(LEFT(Tabelle1!R96,FIND(")",Tabelle1!R96)-1),LEN(LEFT(Tabelle1!R96,FIND(")",Tabelle1!R96)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <f>IFERROR((IF(LEFT(Tabelle1!S96,1)="(",RIGHT(LEFT(Tabelle1!S96,FIND(")",Tabelle1!S96)-1),LEN(LEFT(Tabelle1!S96,FIND(")",Tabelle1!S96)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <f>IFERROR((IF(LEFT(Tabelle1!T96,1)="(",RIGHT(LEFT(Tabelle1!T96,FIND(")",Tabelle1!T96)-1),LEN(LEFT(Tabelle1!T96,FIND(")",Tabelle1!T96)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <f>IFERROR((IF(LEFT(Tabelle1!U96,1)="(",RIGHT(LEFT(Tabelle1!U96,FIND(")",Tabelle1!U96)-1),LEN(LEFT(Tabelle1!U96,FIND(")",Tabelle1!U96)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <f>IFERROR((IF(LEFT(Tabelle1!V96,1)="(",RIGHT(LEFT(Tabelle1!V96,FIND(")",Tabelle1!V96)-1),LEN(LEFT(Tabelle1!V96,FIND(")",Tabelle1!V96)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A95" s="13">
+        <f>Tabelle1!A97</f>
+        <v>43975</v>
+      </c>
+      <c r="B95">
+        <f>IFERROR((IF(LEFT(Tabelle1!B97,1)="(",RIGHT(LEFT(Tabelle1!B97,FIND(")",Tabelle1!B97)-1),LEN(LEFT(Tabelle1!B97,FIND(")",Tabelle1!B97)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <f>IFERROR((IF(LEFT(Tabelle1!C97,1)="(",RIGHT(LEFT(Tabelle1!C97,FIND(")",Tabelle1!C97)-1),LEN(LEFT(Tabelle1!C97,FIND(")",Tabelle1!C97)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <f>IFERROR((IF(LEFT(Tabelle1!D97,1)="(",RIGHT(LEFT(Tabelle1!D97,FIND(")",Tabelle1!D97)-1),LEN(LEFT(Tabelle1!D97,FIND(")",Tabelle1!D97)))-2),""))*1,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <f>IFERROR((IF(LEFT(Tabelle1!E97,1)="(",RIGHT(LEFT(Tabelle1!E97,FIND(")",Tabelle1!E97)-1),LEN(LEFT(Tabelle1!E97,FIND(")",Tabelle1!E97)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f>IFERROR((IF(LEFT(Tabelle1!F97,1)="(",RIGHT(LEFT(Tabelle1!F97,FIND(")",Tabelle1!F97)-1),LEN(LEFT(Tabelle1!F97,FIND(")",Tabelle1!F97)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <f>IFERROR((IF(LEFT(Tabelle1!G97,1)="(",RIGHT(LEFT(Tabelle1!G97,FIND(")",Tabelle1!G97)-1),LEN(LEFT(Tabelle1!G97,FIND(")",Tabelle1!G97)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <f>IFERROR((IF(LEFT(Tabelle1!H97,1)="(",RIGHT(LEFT(Tabelle1!H97,FIND(")",Tabelle1!H97)-1),LEN(LEFT(Tabelle1!H97,FIND(")",Tabelle1!H97)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f>IFERROR((IF(LEFT(Tabelle1!I97,1)="(",RIGHT(LEFT(Tabelle1!I97,FIND(")",Tabelle1!I97)-1),LEN(LEFT(Tabelle1!I97,FIND(")",Tabelle1!I97)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <f>IFERROR((IF(LEFT(Tabelle1!J97,1)="(",RIGHT(LEFT(Tabelle1!J97,FIND(")",Tabelle1!J97)-1),LEN(LEFT(Tabelle1!J97,FIND(")",Tabelle1!J97)))-2),""))*1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K95">
+        <f>IFERROR((IF(LEFT(Tabelle1!K97,1)="(",RIGHT(LEFT(Tabelle1!K97,FIND(")",Tabelle1!K97)-1),LEN(LEFT(Tabelle1!K97,FIND(")",Tabelle1!K97)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <f>IFERROR((IF(LEFT(Tabelle1!L97,1)="(",RIGHT(LEFT(Tabelle1!L97,FIND(")",Tabelle1!L97)-1),LEN(LEFT(Tabelle1!L97,FIND(")",Tabelle1!L97)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <f>IFERROR((IF(LEFT(Tabelle1!M97,1)="(",RIGHT(LEFT(Tabelle1!M97,FIND(")",Tabelle1!M97)-1),LEN(LEFT(Tabelle1!M97,FIND(")",Tabelle1!M97)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <f>IFERROR((IF(LEFT(Tabelle1!N97,1)="(",RIGHT(LEFT(Tabelle1!N97,FIND(")",Tabelle1!N97)-1),LEN(LEFT(Tabelle1!N97,FIND(")",Tabelle1!N97)))-2),""))*1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="O95">
+        <f>IFERROR((IF(LEFT(Tabelle1!O97,1)="(",RIGHT(LEFT(Tabelle1!O97,FIND(")",Tabelle1!O97)-1),LEN(LEFT(Tabelle1!O97,FIND(")",Tabelle1!O97)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <f>IFERROR((IF(LEFT(Tabelle1!P97,1)="(",RIGHT(LEFT(Tabelle1!P97,FIND(")",Tabelle1!P97)-1),LEN(LEFT(Tabelle1!P97,FIND(")",Tabelle1!P97)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q97,1)="(",RIGHT(LEFT(Tabelle1!Q97,FIND(")",Tabelle1!Q97)-1),LEN(LEFT(Tabelle1!Q97,FIND(")",Tabelle1!Q97)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <f>IFERROR((IF(LEFT(Tabelle1!R97,1)="(",RIGHT(LEFT(Tabelle1!R97,FIND(")",Tabelle1!R97)-1),LEN(LEFT(Tabelle1!R97,FIND(")",Tabelle1!R97)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <f>IFERROR((IF(LEFT(Tabelle1!S97,1)="(",RIGHT(LEFT(Tabelle1!S97,FIND(")",Tabelle1!S97)-1),LEN(LEFT(Tabelle1!S97,FIND(")",Tabelle1!S97)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <f>IFERROR((IF(LEFT(Tabelle1!T97,1)="(",RIGHT(LEFT(Tabelle1!T97,FIND(")",Tabelle1!T97)-1),LEN(LEFT(Tabelle1!T97,FIND(")",Tabelle1!T97)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <f>IFERROR((IF(LEFT(Tabelle1!U97,1)="(",RIGHT(LEFT(Tabelle1!U97,FIND(")",Tabelle1!U97)-1),LEN(LEFT(Tabelle1!U97,FIND(")",Tabelle1!U97)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <f>IFERROR((IF(LEFT(Tabelle1!V97,1)="(",RIGHT(LEFT(Tabelle1!V97,FIND(")",Tabelle1!V97)-1),LEN(LEFT(Tabelle1!V97,FIND(")",Tabelle1!V97)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A96" s="13">
+        <f>Tabelle1!A98</f>
+        <v>43976</v>
+      </c>
+      <c r="B96">
+        <f>IFERROR((IF(LEFT(Tabelle1!B98,1)="(",RIGHT(LEFT(Tabelle1!B98,FIND(")",Tabelle1!B98)-1),LEN(LEFT(Tabelle1!B98,FIND(")",Tabelle1!B98)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <f>IFERROR((IF(LEFT(Tabelle1!C98,1)="(",RIGHT(LEFT(Tabelle1!C98,FIND(")",Tabelle1!C98)-1),LEN(LEFT(Tabelle1!C98,FIND(")",Tabelle1!C98)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <f>IFERROR((IF(LEFT(Tabelle1!D98,1)="(",RIGHT(LEFT(Tabelle1!D98,FIND(")",Tabelle1!D98)-1),LEN(LEFT(Tabelle1!D98,FIND(")",Tabelle1!D98)))-2),""))*1,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <f>IFERROR((IF(LEFT(Tabelle1!E98,1)="(",RIGHT(LEFT(Tabelle1!E98,FIND(")",Tabelle1!E98)-1),LEN(LEFT(Tabelle1!E98,FIND(")",Tabelle1!E98)))-2),""))*1,0)</f>
+        <v>34</v>
+      </c>
+      <c r="F96">
+        <f>IFERROR((IF(LEFT(Tabelle1!F98,1)="(",RIGHT(LEFT(Tabelle1!F98,FIND(")",Tabelle1!F98)-1),LEN(LEFT(Tabelle1!F98,FIND(")",Tabelle1!F98)))-2),""))*1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="G96">
+        <f>IFERROR((IF(LEFT(Tabelle1!G98,1)="(",RIGHT(LEFT(Tabelle1!G98,FIND(")",Tabelle1!G98)-1),LEN(LEFT(Tabelle1!G98,FIND(")",Tabelle1!G98)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <f>IFERROR((IF(LEFT(Tabelle1!H98,1)="(",RIGHT(LEFT(Tabelle1!H98,FIND(")",Tabelle1!H98)-1),LEN(LEFT(Tabelle1!H98,FIND(")",Tabelle1!H98)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f>IFERROR((IF(LEFT(Tabelle1!I98,1)="(",RIGHT(LEFT(Tabelle1!I98,FIND(")",Tabelle1!I98)-1),LEN(LEFT(Tabelle1!I98,FIND(")",Tabelle1!I98)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f>IFERROR((IF(LEFT(Tabelle1!J98,1)="(",RIGHT(LEFT(Tabelle1!J98,FIND(")",Tabelle1!J98)-1),LEN(LEFT(Tabelle1!J98,FIND(")",Tabelle1!J98)))-2),""))*1,0)</f>
+        <v>13</v>
+      </c>
+      <c r="K96">
+        <f>IFERROR((IF(LEFT(Tabelle1!K98,1)="(",RIGHT(LEFT(Tabelle1!K98,FIND(")",Tabelle1!K98)-1),LEN(LEFT(Tabelle1!K98,FIND(")",Tabelle1!K98)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <f>IFERROR((IF(LEFT(Tabelle1!L98,1)="(",RIGHT(LEFT(Tabelle1!L98,FIND(")",Tabelle1!L98)-1),LEN(LEFT(Tabelle1!L98,FIND(")",Tabelle1!L98)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <f>IFERROR((IF(LEFT(Tabelle1!M98,1)="(",RIGHT(LEFT(Tabelle1!M98,FIND(")",Tabelle1!M98)-1),LEN(LEFT(Tabelle1!M98,FIND(")",Tabelle1!M98)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f>IFERROR((IF(LEFT(Tabelle1!N98,1)="(",RIGHT(LEFT(Tabelle1!N98,FIND(")",Tabelle1!N98)-1),LEN(LEFT(Tabelle1!N98,FIND(")",Tabelle1!N98)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O96">
+        <f>IFERROR((IF(LEFT(Tabelle1!O98,1)="(",RIGHT(LEFT(Tabelle1!O98,FIND(")",Tabelle1!O98)-1),LEN(LEFT(Tabelle1!O98,FIND(")",Tabelle1!O98)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="P96">
+        <f>IFERROR((IF(LEFT(Tabelle1!P98,1)="(",RIGHT(LEFT(Tabelle1!P98,FIND(")",Tabelle1!P98)-1),LEN(LEFT(Tabelle1!P98,FIND(")",Tabelle1!P98)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q98,1)="(",RIGHT(LEFT(Tabelle1!Q98,FIND(")",Tabelle1!Q98)-1),LEN(LEFT(Tabelle1!Q98,FIND(")",Tabelle1!Q98)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <f>IFERROR((IF(LEFT(Tabelle1!R98,1)="(",RIGHT(LEFT(Tabelle1!R98,FIND(")",Tabelle1!R98)-1),LEN(LEFT(Tabelle1!R98,FIND(")",Tabelle1!R98)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <f>IFERROR((IF(LEFT(Tabelle1!S98,1)="(",RIGHT(LEFT(Tabelle1!S98,FIND(")",Tabelle1!S98)-1),LEN(LEFT(Tabelle1!S98,FIND(")",Tabelle1!S98)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="T96">
+        <f>IFERROR((IF(LEFT(Tabelle1!T98,1)="(",RIGHT(LEFT(Tabelle1!T98,FIND(")",Tabelle1!T98)-1),LEN(LEFT(Tabelle1!T98,FIND(")",Tabelle1!T98)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <f>IFERROR((IF(LEFT(Tabelle1!U98,1)="(",RIGHT(LEFT(Tabelle1!U98,FIND(")",Tabelle1!U98)-1),LEN(LEFT(Tabelle1!U98,FIND(")",Tabelle1!U98)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V96">
+        <f>IFERROR((IF(LEFT(Tabelle1!V98,1)="(",RIGHT(LEFT(Tabelle1!V98,FIND(")",Tabelle1!V98)-1),LEN(LEFT(Tabelle1!V98,FIND(")",Tabelle1!V98)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A97" s="13">
+        <f>Tabelle1!A99</f>
+        <v>43977</v>
+      </c>
+      <c r="B97">
+        <f>IFERROR((IF(LEFT(Tabelle1!B99,1)="(",RIGHT(LEFT(Tabelle1!B99,FIND(")",Tabelle1!B99)-1),LEN(LEFT(Tabelle1!B99,FIND(")",Tabelle1!B99)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <f>IFERROR((IF(LEFT(Tabelle1!C99,1)="(",RIGHT(LEFT(Tabelle1!C99,FIND(")",Tabelle1!C99)-1),LEN(LEFT(Tabelle1!C99,FIND(")",Tabelle1!C99)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <f>IFERROR((IF(LEFT(Tabelle1!D99,1)="(",RIGHT(LEFT(Tabelle1!D99,FIND(")",Tabelle1!D99)-1),LEN(LEFT(Tabelle1!D99,FIND(")",Tabelle1!D99)))-2),""))*1,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <f>IFERROR((IF(LEFT(Tabelle1!E99,1)="(",RIGHT(LEFT(Tabelle1!E99,FIND(")",Tabelle1!E99)-1),LEN(LEFT(Tabelle1!E99,FIND(")",Tabelle1!E99)))-2),""))*1,0)</f>
+        <v>22</v>
+      </c>
+      <c r="F97">
+        <f>IFERROR((IF(LEFT(Tabelle1!F99,1)="(",RIGHT(LEFT(Tabelle1!F99,FIND(")",Tabelle1!F99)-1),LEN(LEFT(Tabelle1!F99,FIND(")",Tabelle1!F99)))-2),""))*1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="G97">
+        <f>IFERROR((IF(LEFT(Tabelle1!G99,1)="(",RIGHT(LEFT(Tabelle1!G99,FIND(")",Tabelle1!G99)-1),LEN(LEFT(Tabelle1!G99,FIND(")",Tabelle1!G99)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <f>IFERROR((IF(LEFT(Tabelle1!H99,1)="(",RIGHT(LEFT(Tabelle1!H99,FIND(")",Tabelle1!H99)-1),LEN(LEFT(Tabelle1!H99,FIND(")",Tabelle1!H99)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f>IFERROR((IF(LEFT(Tabelle1!I99,1)="(",RIGHT(LEFT(Tabelle1!I99,FIND(")",Tabelle1!I99)-1),LEN(LEFT(Tabelle1!I99,FIND(")",Tabelle1!I99)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f>IFERROR((IF(LEFT(Tabelle1!J99,1)="(",RIGHT(LEFT(Tabelle1!J99,FIND(")",Tabelle1!J99)-1),LEN(LEFT(Tabelle1!J99,FIND(")",Tabelle1!J99)))-2),""))*1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K97">
+        <f>IFERROR((IF(LEFT(Tabelle1!K99,1)="(",RIGHT(LEFT(Tabelle1!K99,FIND(")",Tabelle1!K99)-1),LEN(LEFT(Tabelle1!K99,FIND(")",Tabelle1!K99)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <f>IFERROR((IF(LEFT(Tabelle1!L99,1)="(",RIGHT(LEFT(Tabelle1!L99,FIND(")",Tabelle1!L99)-1),LEN(LEFT(Tabelle1!L99,FIND(")",Tabelle1!L99)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M97">
+        <f>IFERROR((IF(LEFT(Tabelle1!M99,1)="(",RIGHT(LEFT(Tabelle1!M99,FIND(")",Tabelle1!M99)-1),LEN(LEFT(Tabelle1!M99,FIND(")",Tabelle1!M99)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <f>IFERROR((IF(LEFT(Tabelle1!N99,1)="(",RIGHT(LEFT(Tabelle1!N99,FIND(")",Tabelle1!N99)-1),LEN(LEFT(Tabelle1!N99,FIND(")",Tabelle1!N99)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="O97">
+        <f>IFERROR((IF(LEFT(Tabelle1!O99,1)="(",RIGHT(LEFT(Tabelle1!O99,FIND(")",Tabelle1!O99)-1),LEN(LEFT(Tabelle1!O99,FIND(")",Tabelle1!O99)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <f>IFERROR((IF(LEFT(Tabelle1!P99,1)="(",RIGHT(LEFT(Tabelle1!P99,FIND(")",Tabelle1!P99)-1),LEN(LEFT(Tabelle1!P99,FIND(")",Tabelle1!P99)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q99,1)="(",RIGHT(LEFT(Tabelle1!Q99,FIND(")",Tabelle1!Q99)-1),LEN(LEFT(Tabelle1!Q99,FIND(")",Tabelle1!Q99)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <f>IFERROR((IF(LEFT(Tabelle1!R99,1)="(",RIGHT(LEFT(Tabelle1!R99,FIND(")",Tabelle1!R99)-1),LEN(LEFT(Tabelle1!R99,FIND(")",Tabelle1!R99)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <f>IFERROR((IF(LEFT(Tabelle1!S99,1)="(",RIGHT(LEFT(Tabelle1!S99,FIND(")",Tabelle1!S99)-1),LEN(LEFT(Tabelle1!S99,FIND(")",Tabelle1!S99)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="T97">
+        <f>IFERROR((IF(LEFT(Tabelle1!T99,1)="(",RIGHT(LEFT(Tabelle1!T99,FIND(")",Tabelle1!T99)-1),LEN(LEFT(Tabelle1!T99,FIND(")",Tabelle1!T99)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <f>IFERROR((IF(LEFT(Tabelle1!U99,1)="(",RIGHT(LEFT(Tabelle1!U99,FIND(")",Tabelle1!U99)-1),LEN(LEFT(Tabelle1!U99,FIND(")",Tabelle1!U99)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <f>IFERROR((IF(LEFT(Tabelle1!V99,1)="(",RIGHT(LEFT(Tabelle1!V99,FIND(")",Tabelle1!V99)-1),LEN(LEFT(Tabelle1!V99,FIND(")",Tabelle1!V99)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A98" s="13">
+        <f>Tabelle1!A100</f>
+        <v>43978</v>
+      </c>
+      <c r="B98">
+        <f>IFERROR((IF(LEFT(Tabelle1!B100,1)="(",RIGHT(LEFT(Tabelle1!B100,FIND(")",Tabelle1!B100)-1),LEN(LEFT(Tabelle1!B100,FIND(")",Tabelle1!B100)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <f>IFERROR((IF(LEFT(Tabelle1!C100,1)="(",RIGHT(LEFT(Tabelle1!C100,FIND(")",Tabelle1!C100)-1),LEN(LEFT(Tabelle1!C100,FIND(")",Tabelle1!C100)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <f>IFERROR((IF(LEFT(Tabelle1!D100,1)="(",RIGHT(LEFT(Tabelle1!D100,FIND(")",Tabelle1!D100)-1),LEN(LEFT(Tabelle1!D100,FIND(")",Tabelle1!D100)))-2),""))*1,0)</f>
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <f>IFERROR((IF(LEFT(Tabelle1!E100,1)="(",RIGHT(LEFT(Tabelle1!E100,FIND(")",Tabelle1!E100)-1),LEN(LEFT(Tabelle1!E100,FIND(")",Tabelle1!E100)))-2),""))*1,0)</f>
+        <v>58</v>
+      </c>
+      <c r="F98">
+        <f>IFERROR((IF(LEFT(Tabelle1!F100,1)="(",RIGHT(LEFT(Tabelle1!F100,FIND(")",Tabelle1!F100)-1),LEN(LEFT(Tabelle1!F100,FIND(")",Tabelle1!F100)))-2),""))*1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="G98">
+        <f>IFERROR((IF(LEFT(Tabelle1!G100,1)="(",RIGHT(LEFT(Tabelle1!G100,FIND(")",Tabelle1!G100)-1),LEN(LEFT(Tabelle1!G100,FIND(")",Tabelle1!G100)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <f>IFERROR((IF(LEFT(Tabelle1!H100,1)="(",RIGHT(LEFT(Tabelle1!H100,FIND(")",Tabelle1!H100)-1),LEN(LEFT(Tabelle1!H100,FIND(")",Tabelle1!H100)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f>IFERROR((IF(LEFT(Tabelle1!I100,1)="(",RIGHT(LEFT(Tabelle1!I100,FIND(")",Tabelle1!I100)-1),LEN(LEFT(Tabelle1!I100,FIND(")",Tabelle1!I100)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <f>IFERROR((IF(LEFT(Tabelle1!J100,1)="(",RIGHT(LEFT(Tabelle1!J100,FIND(")",Tabelle1!J100)-1),LEN(LEFT(Tabelle1!J100,FIND(")",Tabelle1!J100)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="K98">
+        <f>IFERROR((IF(LEFT(Tabelle1!K100,1)="(",RIGHT(LEFT(Tabelle1!K100,FIND(")",Tabelle1!K100)-1),LEN(LEFT(Tabelle1!K100,FIND(")",Tabelle1!K100)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f>IFERROR((IF(LEFT(Tabelle1!L100,1)="(",RIGHT(LEFT(Tabelle1!L100,FIND(")",Tabelle1!L100)-1),LEN(LEFT(Tabelle1!L100,FIND(")",Tabelle1!L100)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M98">
+        <f>IFERROR((IF(LEFT(Tabelle1!M100,1)="(",RIGHT(LEFT(Tabelle1!M100,FIND(")",Tabelle1!M100)-1),LEN(LEFT(Tabelle1!M100,FIND(")",Tabelle1!M100)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f>IFERROR((IF(LEFT(Tabelle1!N100,1)="(",RIGHT(LEFT(Tabelle1!N100,FIND(")",Tabelle1!N100)-1),LEN(LEFT(Tabelle1!N100,FIND(")",Tabelle1!N100)))-2),""))*1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="O98">
+        <f>IFERROR((IF(LEFT(Tabelle1!O100,1)="(",RIGHT(LEFT(Tabelle1!O100,FIND(")",Tabelle1!O100)-1),LEN(LEFT(Tabelle1!O100,FIND(")",Tabelle1!O100)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <f>IFERROR((IF(LEFT(Tabelle1!P100,1)="(",RIGHT(LEFT(Tabelle1!P100,FIND(")",Tabelle1!P100)-1),LEN(LEFT(Tabelle1!P100,FIND(")",Tabelle1!P100)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q100,1)="(",RIGHT(LEFT(Tabelle1!Q100,FIND(")",Tabelle1!Q100)-1),LEN(LEFT(Tabelle1!Q100,FIND(")",Tabelle1!Q100)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <f>IFERROR((IF(LEFT(Tabelle1!R100,1)="(",RIGHT(LEFT(Tabelle1!R100,FIND(")",Tabelle1!R100)-1),LEN(LEFT(Tabelle1!R100,FIND(")",Tabelle1!R100)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <f>IFERROR((IF(LEFT(Tabelle1!S100,1)="(",RIGHT(LEFT(Tabelle1!S100,FIND(")",Tabelle1!S100)-1),LEN(LEFT(Tabelle1!S100,FIND(")",Tabelle1!S100)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <f>IFERROR((IF(LEFT(Tabelle1!T100,1)="(",RIGHT(LEFT(Tabelle1!T100,FIND(")",Tabelle1!T100)-1),LEN(LEFT(Tabelle1!T100,FIND(")",Tabelle1!T100)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <f>IFERROR((IF(LEFT(Tabelle1!U100,1)="(",RIGHT(LEFT(Tabelle1!U100,FIND(")",Tabelle1!U100)-1),LEN(LEFT(Tabelle1!U100,FIND(")",Tabelle1!U100)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V98">
+        <f>IFERROR((IF(LEFT(Tabelle1!V100,1)="(",RIGHT(LEFT(Tabelle1!V100,FIND(")",Tabelle1!V100)-1),LEN(LEFT(Tabelle1!V100,FIND(")",Tabelle1!V100)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A99" s="13">
+        <f>Tabelle1!A101</f>
+        <v>43979</v>
+      </c>
+      <c r="B99">
+        <f>IFERROR((IF(LEFT(Tabelle1!B101,1)="(",RIGHT(LEFT(Tabelle1!B101,FIND(")",Tabelle1!B101)-1),LEN(LEFT(Tabelle1!B101,FIND(")",Tabelle1!B101)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <f>IFERROR((IF(LEFT(Tabelle1!C101,1)="(",RIGHT(LEFT(Tabelle1!C101,FIND(")",Tabelle1!C101)-1),LEN(LEFT(Tabelle1!C101,FIND(")",Tabelle1!C101)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <f>IFERROR((IF(LEFT(Tabelle1!D101,1)="(",RIGHT(LEFT(Tabelle1!D101,FIND(")",Tabelle1!D101)-1),LEN(LEFT(Tabelle1!D101,FIND(")",Tabelle1!D101)))-2),""))*1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <f>IFERROR((IF(LEFT(Tabelle1!E101,1)="(",RIGHT(LEFT(Tabelle1!E101,FIND(")",Tabelle1!E101)-1),LEN(LEFT(Tabelle1!E101,FIND(")",Tabelle1!E101)))-2),""))*1,0)</f>
+        <v>20</v>
+      </c>
+      <c r="F99">
+        <f>IFERROR((IF(LEFT(Tabelle1!F101,1)="(",RIGHT(LEFT(Tabelle1!F101,FIND(")",Tabelle1!F101)-1),LEN(LEFT(Tabelle1!F101,FIND(")",Tabelle1!F101)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <f>IFERROR((IF(LEFT(Tabelle1!G101,1)="(",RIGHT(LEFT(Tabelle1!G101,FIND(")",Tabelle1!G101)-1),LEN(LEFT(Tabelle1!G101,FIND(")",Tabelle1!G101)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f>IFERROR((IF(LEFT(Tabelle1!H101,1)="(",RIGHT(LEFT(Tabelle1!H101,FIND(")",Tabelle1!H101)-1),LEN(LEFT(Tabelle1!H101,FIND(")",Tabelle1!H101)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f>IFERROR((IF(LEFT(Tabelle1!I101,1)="(",RIGHT(LEFT(Tabelle1!I101,FIND(")",Tabelle1!I101)-1),LEN(LEFT(Tabelle1!I101,FIND(")",Tabelle1!I101)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <f>IFERROR((IF(LEFT(Tabelle1!J101,1)="(",RIGHT(LEFT(Tabelle1!J101,FIND(")",Tabelle1!J101)-1),LEN(LEFT(Tabelle1!J101,FIND(")",Tabelle1!J101)))-2),""))*1,0)</f>
+        <v>11</v>
+      </c>
+      <c r="K99">
+        <f>IFERROR((IF(LEFT(Tabelle1!K101,1)="(",RIGHT(LEFT(Tabelle1!K101,FIND(")",Tabelle1!K101)-1),LEN(LEFT(Tabelle1!K101,FIND(")",Tabelle1!K101)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <f>IFERROR((IF(LEFT(Tabelle1!L101,1)="(",RIGHT(LEFT(Tabelle1!L101,FIND(")",Tabelle1!L101)-1),LEN(LEFT(Tabelle1!L101,FIND(")",Tabelle1!L101)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <f>IFERROR((IF(LEFT(Tabelle1!M101,1)="(",RIGHT(LEFT(Tabelle1!M101,FIND(")",Tabelle1!M101)-1),LEN(LEFT(Tabelle1!M101,FIND(")",Tabelle1!M101)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <f>IFERROR((IF(LEFT(Tabelle1!N101,1)="(",RIGHT(LEFT(Tabelle1!N101,FIND(")",Tabelle1!N101)-1),LEN(LEFT(Tabelle1!N101,FIND(")",Tabelle1!N101)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O99">
+        <f>IFERROR((IF(LEFT(Tabelle1!O101,1)="(",RIGHT(LEFT(Tabelle1!O101,FIND(")",Tabelle1!O101)-1),LEN(LEFT(Tabelle1!O101,FIND(")",Tabelle1!O101)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="P99">
+        <f>IFERROR((IF(LEFT(Tabelle1!P101,1)="(",RIGHT(LEFT(Tabelle1!P101,FIND(")",Tabelle1!P101)-1),LEN(LEFT(Tabelle1!P101,FIND(")",Tabelle1!P101)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q101,1)="(",RIGHT(LEFT(Tabelle1!Q101,FIND(")",Tabelle1!Q101)-1),LEN(LEFT(Tabelle1!Q101,FIND(")",Tabelle1!Q101)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R99">
+        <f>IFERROR((IF(LEFT(Tabelle1!R101,1)="(",RIGHT(LEFT(Tabelle1!R101,FIND(")",Tabelle1!R101)-1),LEN(LEFT(Tabelle1!R101,FIND(")",Tabelle1!R101)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <f>IFERROR((IF(LEFT(Tabelle1!S101,1)="(",RIGHT(LEFT(Tabelle1!S101,FIND(")",Tabelle1!S101)-1),LEN(LEFT(Tabelle1!S101,FIND(")",Tabelle1!S101)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <f>IFERROR((IF(LEFT(Tabelle1!T101,1)="(",RIGHT(LEFT(Tabelle1!T101,FIND(")",Tabelle1!T101)-1),LEN(LEFT(Tabelle1!T101,FIND(")",Tabelle1!T101)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <f>IFERROR((IF(LEFT(Tabelle1!U101,1)="(",RIGHT(LEFT(Tabelle1!U101,FIND(")",Tabelle1!U101)-1),LEN(LEFT(Tabelle1!U101,FIND(")",Tabelle1!U101)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <f>IFERROR((IF(LEFT(Tabelle1!V101,1)="(",RIGHT(LEFT(Tabelle1!V101,FIND(")",Tabelle1!V101)-1),LEN(LEFT(Tabelle1!V101,FIND(")",Tabelle1!V101)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A100" s="13">
+        <f>Tabelle1!A102</f>
+        <v>43980</v>
+      </c>
+      <c r="B100">
+        <f>IFERROR((IF(LEFT(Tabelle1!B102,1)="(",RIGHT(LEFT(Tabelle1!B102,FIND(")",Tabelle1!B102)-1),LEN(LEFT(Tabelle1!B102,FIND(")",Tabelle1!B102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <f>IFERROR((IF(LEFT(Tabelle1!C102,1)="(",RIGHT(LEFT(Tabelle1!C102,FIND(")",Tabelle1!C102)-1),LEN(LEFT(Tabelle1!C102,FIND(")",Tabelle1!C102)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D100">
+        <f>IFERROR((IF(LEFT(Tabelle1!D102,1)="(",RIGHT(LEFT(Tabelle1!D102,FIND(")",Tabelle1!D102)-1),LEN(LEFT(Tabelle1!D102,FIND(")",Tabelle1!D102)))-2),""))*1,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E100">
+        <f>IFERROR((IF(LEFT(Tabelle1!E102,1)="(",RIGHT(LEFT(Tabelle1!E102,FIND(")",Tabelle1!E102)-1),LEN(LEFT(Tabelle1!E102,FIND(")",Tabelle1!E102)))-2),""))*1,0)</f>
+        <v>38</v>
+      </c>
+      <c r="F100">
+        <f>IFERROR((IF(LEFT(Tabelle1!F102,1)="(",RIGHT(LEFT(Tabelle1!F102,FIND(")",Tabelle1!F102)-1),LEN(LEFT(Tabelle1!F102,FIND(")",Tabelle1!F102)))-2),""))*1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="G100">
+        <f>IFERROR((IF(LEFT(Tabelle1!G102,1)="(",RIGHT(LEFT(Tabelle1!G102,FIND(")",Tabelle1!G102)-1),LEN(LEFT(Tabelle1!G102,FIND(")",Tabelle1!G102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f>IFERROR((IF(LEFT(Tabelle1!H102,1)="(",RIGHT(LEFT(Tabelle1!H102,FIND(")",Tabelle1!H102)-1),LEN(LEFT(Tabelle1!H102,FIND(")",Tabelle1!H102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f>IFERROR((IF(LEFT(Tabelle1!I102,1)="(",RIGHT(LEFT(Tabelle1!I102,FIND(")",Tabelle1!I102)-1),LEN(LEFT(Tabelle1!I102,FIND(")",Tabelle1!I102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f>IFERROR((IF(LEFT(Tabelle1!J102,1)="(",RIGHT(LEFT(Tabelle1!J102,FIND(")",Tabelle1!J102)-1),LEN(LEFT(Tabelle1!J102,FIND(")",Tabelle1!J102)))-2),""))*1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K100">
+        <f>IFERROR((IF(LEFT(Tabelle1!K102,1)="(",RIGHT(LEFT(Tabelle1!K102,FIND(")",Tabelle1!K102)-1),LEN(LEFT(Tabelle1!K102,FIND(")",Tabelle1!K102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f>IFERROR((IF(LEFT(Tabelle1!L102,1)="(",RIGHT(LEFT(Tabelle1!L102,FIND(")",Tabelle1!L102)-1),LEN(LEFT(Tabelle1!L102,FIND(")",Tabelle1!L102)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <f>IFERROR((IF(LEFT(Tabelle1!M102,1)="(",RIGHT(LEFT(Tabelle1!M102,FIND(")",Tabelle1!M102)-1),LEN(LEFT(Tabelle1!M102,FIND(")",Tabelle1!M102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <f>IFERROR((IF(LEFT(Tabelle1!N102,1)="(",RIGHT(LEFT(Tabelle1!N102,FIND(")",Tabelle1!N102)-1),LEN(LEFT(Tabelle1!N102,FIND(")",Tabelle1!N102)))-2),""))*1,0)</f>
+        <v>13</v>
+      </c>
+      <c r="O100">
+        <f>IFERROR((IF(LEFT(Tabelle1!O102,1)="(",RIGHT(LEFT(Tabelle1!O102,FIND(")",Tabelle1!O102)-1),LEN(LEFT(Tabelle1!O102,FIND(")",Tabelle1!O102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <f>IFERROR((IF(LEFT(Tabelle1!P102,1)="(",RIGHT(LEFT(Tabelle1!P102,FIND(")",Tabelle1!P102)-1),LEN(LEFT(Tabelle1!P102,FIND(")",Tabelle1!P102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q102,1)="(",RIGHT(LEFT(Tabelle1!Q102,FIND(")",Tabelle1!Q102)-1),LEN(LEFT(Tabelle1!Q102,FIND(")",Tabelle1!Q102)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <f>IFERROR((IF(LEFT(Tabelle1!R102,1)="(",RIGHT(LEFT(Tabelle1!R102,FIND(")",Tabelle1!R102)-1),LEN(LEFT(Tabelle1!R102,FIND(")",Tabelle1!R102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <f>IFERROR((IF(LEFT(Tabelle1!S102,1)="(",RIGHT(LEFT(Tabelle1!S102,FIND(")",Tabelle1!S102)-1),LEN(LEFT(Tabelle1!S102,FIND(")",Tabelle1!S102)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="T100">
+        <f>IFERROR((IF(LEFT(Tabelle1!T102,1)="(",RIGHT(LEFT(Tabelle1!T102,FIND(")",Tabelle1!T102)-1),LEN(LEFT(Tabelle1!T102,FIND(")",Tabelle1!T102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <f>IFERROR((IF(LEFT(Tabelle1!U102,1)="(",RIGHT(LEFT(Tabelle1!U102,FIND(")",Tabelle1!U102)-1),LEN(LEFT(Tabelle1!U102,FIND(")",Tabelle1!U102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <f>IFERROR((IF(LEFT(Tabelle1!V102,1)="(",RIGHT(LEFT(Tabelle1!V102,FIND(")",Tabelle1!V102)-1),LEN(LEFT(Tabelle1!V102,FIND(")",Tabelle1!V102)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A101" s="13">
+        <f>Tabelle1!A103</f>
+        <v>43981</v>
+      </c>
+      <c r="B101">
+        <f>IFERROR((IF(LEFT(Tabelle1!B103,1)="(",RIGHT(LEFT(Tabelle1!B103,FIND(")",Tabelle1!B103)-1),LEN(LEFT(Tabelle1!B103,FIND(")",Tabelle1!B103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <f>IFERROR((IF(LEFT(Tabelle1!C103,1)="(",RIGHT(LEFT(Tabelle1!C103,FIND(")",Tabelle1!C103)-1),LEN(LEFT(Tabelle1!C103,FIND(")",Tabelle1!C103)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <f>IFERROR((IF(LEFT(Tabelle1!D103,1)="(",RIGHT(LEFT(Tabelle1!D103,FIND(")",Tabelle1!D103)-1),LEN(LEFT(Tabelle1!D103,FIND(")",Tabelle1!D103)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <f>IFERROR((IF(LEFT(Tabelle1!E103,1)="(",RIGHT(LEFT(Tabelle1!E103,FIND(")",Tabelle1!E103)-1),LEN(LEFT(Tabelle1!E103,FIND(")",Tabelle1!E103)))-2),""))*1,0)</f>
+        <v>67</v>
+      </c>
+      <c r="F101">
+        <f>IFERROR((IF(LEFT(Tabelle1!F103,1)="(",RIGHT(LEFT(Tabelle1!F103,FIND(")",Tabelle1!F103)-1),LEN(LEFT(Tabelle1!F103,FIND(")",Tabelle1!F103)))-2),""))*1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G101">
+        <f>IFERROR((IF(LEFT(Tabelle1!G103,1)="(",RIGHT(LEFT(Tabelle1!G103,FIND(")",Tabelle1!G103)-1),LEN(LEFT(Tabelle1!G103,FIND(")",Tabelle1!G103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f>IFERROR((IF(LEFT(Tabelle1!H103,1)="(",RIGHT(LEFT(Tabelle1!H103,FIND(")",Tabelle1!H103)-1),LEN(LEFT(Tabelle1!H103,FIND(")",Tabelle1!H103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f>IFERROR((IF(LEFT(Tabelle1!I103,1)="(",RIGHT(LEFT(Tabelle1!I103,FIND(")",Tabelle1!I103)-1),LEN(LEFT(Tabelle1!I103,FIND(")",Tabelle1!I103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <f>IFERROR((IF(LEFT(Tabelle1!J103,1)="(",RIGHT(LEFT(Tabelle1!J103,FIND(")",Tabelle1!J103)-1),LEN(LEFT(Tabelle1!J103,FIND(")",Tabelle1!J103)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="K101">
+        <f>IFERROR((IF(LEFT(Tabelle1!K103,1)="(",RIGHT(LEFT(Tabelle1!K103,FIND(")",Tabelle1!K103)-1),LEN(LEFT(Tabelle1!K103,FIND(")",Tabelle1!K103)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <f>IFERROR((IF(LEFT(Tabelle1!L103,1)="(",RIGHT(LEFT(Tabelle1!L103,FIND(")",Tabelle1!L103)-1),LEN(LEFT(Tabelle1!L103,FIND(")",Tabelle1!L103)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M101">
+        <f>IFERROR((IF(LEFT(Tabelle1!M103,1)="(",RIGHT(LEFT(Tabelle1!M103,FIND(")",Tabelle1!M103)-1),LEN(LEFT(Tabelle1!M103,FIND(")",Tabelle1!M103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <f>IFERROR((IF(LEFT(Tabelle1!N103,1)="(",RIGHT(LEFT(Tabelle1!N103,FIND(")",Tabelle1!N103)-1),LEN(LEFT(Tabelle1!N103,FIND(")",Tabelle1!N103)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O101">
+        <f>IFERROR((IF(LEFT(Tabelle1!O103,1)="(",RIGHT(LEFT(Tabelle1!O103,FIND(")",Tabelle1!O103)-1),LEN(LEFT(Tabelle1!O103,FIND(")",Tabelle1!O103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <f>IFERROR((IF(LEFT(Tabelle1!P103,1)="(",RIGHT(LEFT(Tabelle1!P103,FIND(")",Tabelle1!P103)-1),LEN(LEFT(Tabelle1!P103,FIND(")",Tabelle1!P103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q103,1)="(",RIGHT(LEFT(Tabelle1!Q103,FIND(")",Tabelle1!Q103)-1),LEN(LEFT(Tabelle1!Q103,FIND(")",Tabelle1!Q103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <f>IFERROR((IF(LEFT(Tabelle1!R103,1)="(",RIGHT(LEFT(Tabelle1!R103,FIND(")",Tabelle1!R103)-1),LEN(LEFT(Tabelle1!R103,FIND(")",Tabelle1!R103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <f>IFERROR((IF(LEFT(Tabelle1!S103,1)="(",RIGHT(LEFT(Tabelle1!S103,FIND(")",Tabelle1!S103)-1),LEN(LEFT(Tabelle1!S103,FIND(")",Tabelle1!S103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <f>IFERROR((IF(LEFT(Tabelle1!T103,1)="(",RIGHT(LEFT(Tabelle1!T103,FIND(")",Tabelle1!T103)-1),LEN(LEFT(Tabelle1!T103,FIND(")",Tabelle1!T103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <f>IFERROR((IF(LEFT(Tabelle1!U103,1)="(",RIGHT(LEFT(Tabelle1!U103,FIND(")",Tabelle1!U103)-1),LEN(LEFT(Tabelle1!U103,FIND(")",Tabelle1!U103)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V101">
+        <f>IFERROR((IF(LEFT(Tabelle1!V103,1)="(",RIGHT(LEFT(Tabelle1!V103,FIND(")",Tabelle1!V103)-1),LEN(LEFT(Tabelle1!V103,FIND(")",Tabelle1!V103)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A102" s="13">
+        <f>Tabelle1!A104</f>
+        <v>43982</v>
+      </c>
+      <c r="B102">
+        <f>IFERROR((IF(LEFT(Tabelle1!B104,1)="(",RIGHT(LEFT(Tabelle1!B104,FIND(")",Tabelle1!B104)-1),LEN(LEFT(Tabelle1!B104,FIND(")",Tabelle1!B104)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <f>IFERROR((IF(LEFT(Tabelle1!C104,1)="(",RIGHT(LEFT(Tabelle1!C104,FIND(")",Tabelle1!C104)-1),LEN(LEFT(Tabelle1!C104,FIND(")",Tabelle1!C104)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <f>IFERROR((IF(LEFT(Tabelle1!D104,1)="(",RIGHT(LEFT(Tabelle1!D104,FIND(")",Tabelle1!D104)-1),LEN(LEFT(Tabelle1!D104,FIND(")",Tabelle1!D104)))-2),""))*1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <f>IFERROR((IF(LEFT(Tabelle1!E104,1)="(",RIGHT(LEFT(Tabelle1!E104,FIND(")",Tabelle1!E104)-1),LEN(LEFT(Tabelle1!E104,FIND(")",Tabelle1!E104)))-2),""))*1,0)</f>
+        <v>33</v>
+      </c>
+      <c r="F102">
+        <f>IFERROR((IF(LEFT(Tabelle1!F104,1)="(",RIGHT(LEFT(Tabelle1!F104,FIND(")",Tabelle1!F104)-1),LEN(LEFT(Tabelle1!F104,FIND(")",Tabelle1!F104)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <f>IFERROR((IF(LEFT(Tabelle1!G104,1)="(",RIGHT(LEFT(Tabelle1!G104,FIND(")",Tabelle1!G104)-1),LEN(LEFT(Tabelle1!G104,FIND(")",Tabelle1!G104)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f>IFERROR((IF(LEFT(Tabelle1!H104,1)="(",RIGHT(LEFT(Tabelle1!H104,FIND(")",Tabelle1!H104)-1),LEN(LEFT(Tabelle1!H104,FIND(")",Tabelle1!H104)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <f>IFERROR((IF(LEFT(Tabelle1!I104,1)="(",RIGHT(LEFT(Tabelle1!I104,FIND(")",Tabelle1!I104)-1),LEN(LEFT(Tabelle1!I104,FIND(")",Tabelle1!I104)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <f>IFERROR((IF(LEFT(Tabelle1!J104,1)="(",RIGHT(LEFT(Tabelle1!J104,FIND(")",Tabelle1!J104)-1),LEN(LEFT(Tabelle1!J104,FIND(")",Tabelle1!J104)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="K102">
+        <f>IFERROR((IF(LEFT(Tabelle1!K104,1)="(",RIGHT(LEFT(Tabelle1!K104,FIND(")",Tabelle1!K104)-1),LEN(LEFT(Tabelle1!K104,FIND(")",Tabelle1!K104)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <f>IFERROR((IF(LEFT(Tabelle1!L104,1)="(",RIGHT(LEFT(Tabelle1!L104,FIND(")",Tabelle1!L104)-1),LEN(LEFT(Tabelle1!L104,FIND(")",Tabelle1!L104)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M102">
+        <f>IFERROR((IF(LEFT(Tabelle1!M104,1)="(",RIGHT(LEFT(Tabelle1!M104,FIND(")",Tabelle1!M104)-1),LEN(LEFT(Tabelle1!M104,FIND(")",Tabelle1!M104)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <f>IFERROR((IF(LEFT(Tabelle1!N104,1)="(",RIGHT(LEFT(Tabelle1!N104,FIND(")",Tabelle1!N104)-1),LEN(LEFT(Tabelle1!N104,FIND(")",Tabelle1!N104)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="O102">
+        <f>IFERROR((IF(LEFT(Tabelle1!O104,1)="(",RIGHT(LEFT(Tabelle1!O104,FIND(")",Tabelle1!O104)-1),LEN(LEFT(Tabelle1!O104,FIND(")",Tabelle1!O104)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <f>IFERROR((IF(LEFT(Tabelle1!P104,1)="(",RIGHT(LEFT(Tabelle1!P104,FIND(")",Tabelle1!P104)-1),LEN(LEFT(Tabelle1!P104,FIND(")",Tabelle1!P104)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q104,1)="(",RIGHT(LEFT(Tabelle1!Q104,FIND(")",Tabelle1!Q104)-1),LEN(LEFT(Tabelle1!Q104,FIND(")",Tabelle1!Q104)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <f>IFERROR((IF(LEFT(Tabelle1!R104,1)="(",RIGHT(LEFT(Tabelle1!R104,FIND(")",Tabelle1!R104)-1),LEN(LEFT(Tabelle1!R104,FIND(")",Tabelle1!R104)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <f>IFERROR((IF(LEFT(Tabelle1!S104,1)="(",RIGHT(LEFT(Tabelle1!S104,FIND(")",Tabelle1!S104)-1),LEN(LEFT(Tabelle1!S104,FIND(")",Tabelle1!S104)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="T102">
+        <f>IFERROR((IF(LEFT(Tabelle1!T104,1)="(",RIGHT(LEFT(Tabelle1!T104,FIND(")",Tabelle1!T104)-1),LEN(LEFT(Tabelle1!T104,FIND(")",Tabelle1!T104)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <f>IFERROR((IF(LEFT(Tabelle1!U104,1)="(",RIGHT(LEFT(Tabelle1!U104,FIND(")",Tabelle1!U104)-1),LEN(LEFT(Tabelle1!U104,FIND(")",Tabelle1!U104)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <f>IFERROR((IF(LEFT(Tabelle1!V104,1)="(",RIGHT(LEFT(Tabelle1!V104,FIND(")",Tabelle1!V104)-1),LEN(LEFT(Tabelle1!V104,FIND(")",Tabelle1!V104)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A103" s="13">
+        <f>Tabelle1!A105</f>
+        <v>43983</v>
+      </c>
+      <c r="B103">
+        <f>IFERROR((IF(LEFT(Tabelle1!B105,1)="(",RIGHT(LEFT(Tabelle1!B105,FIND(")",Tabelle1!B105)-1),LEN(LEFT(Tabelle1!B105,FIND(")",Tabelle1!B105)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <f>IFERROR((IF(LEFT(Tabelle1!C105,1)="(",RIGHT(LEFT(Tabelle1!C105,FIND(")",Tabelle1!C105)-1),LEN(LEFT(Tabelle1!C105,FIND(")",Tabelle1!C105)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <f>IFERROR((IF(LEFT(Tabelle1!D105,1)="(",RIGHT(LEFT(Tabelle1!D105,FIND(")",Tabelle1!D105)-1),LEN(LEFT(Tabelle1!D105,FIND(")",Tabelle1!D105)))-2),""))*1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <f>IFERROR((IF(LEFT(Tabelle1!E105,1)="(",RIGHT(LEFT(Tabelle1!E105,FIND(")",Tabelle1!E105)-1),LEN(LEFT(Tabelle1!E105,FIND(")",Tabelle1!E105)))-2),""))*1,0)</f>
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <f>IFERROR((IF(LEFT(Tabelle1!F105,1)="(",RIGHT(LEFT(Tabelle1!F105,FIND(")",Tabelle1!F105)-1),LEN(LEFT(Tabelle1!F105,FIND(")",Tabelle1!F105)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f>IFERROR((IF(LEFT(Tabelle1!G105,1)="(",RIGHT(LEFT(Tabelle1!G105,FIND(")",Tabelle1!G105)-1),LEN(LEFT(Tabelle1!G105,FIND(")",Tabelle1!G105)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f>IFERROR((IF(LEFT(Tabelle1!H105,1)="(",RIGHT(LEFT(Tabelle1!H105,FIND(")",Tabelle1!H105)-1),LEN(LEFT(Tabelle1!H105,FIND(")",Tabelle1!H105)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f>IFERROR((IF(LEFT(Tabelle1!I105,1)="(",RIGHT(LEFT(Tabelle1!I105,FIND(")",Tabelle1!I105)-1),LEN(LEFT(Tabelle1!I105,FIND(")",Tabelle1!I105)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <f>IFERROR((IF(LEFT(Tabelle1!J105,1)="(",RIGHT(LEFT(Tabelle1!J105,FIND(")",Tabelle1!J105)-1),LEN(LEFT(Tabelle1!J105,FIND(")",Tabelle1!J105)))-2),""))*1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="K103">
+        <f>IFERROR((IF(LEFT(Tabelle1!K105,1)="(",RIGHT(LEFT(Tabelle1!K105,FIND(")",Tabelle1!K105)-1),LEN(LEFT(Tabelle1!K105,FIND(")",Tabelle1!K105)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <f>IFERROR((IF(LEFT(Tabelle1!L105,1)="(",RIGHT(LEFT(Tabelle1!L105,FIND(")",Tabelle1!L105)-1),LEN(LEFT(Tabelle1!L105,FIND(")",Tabelle1!L105)))-2),""))*1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="M103">
+        <f>IFERROR((IF(LEFT(Tabelle1!M105,1)="(",RIGHT(LEFT(Tabelle1!M105,FIND(")",Tabelle1!M105)-1),LEN(LEFT(Tabelle1!M105,FIND(")",Tabelle1!M105)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <f>IFERROR((IF(LEFT(Tabelle1!N105,1)="(",RIGHT(LEFT(Tabelle1!N105,FIND(")",Tabelle1!N105)-1),LEN(LEFT(Tabelle1!N105,FIND(")",Tabelle1!N105)))-2),""))*1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <f>IFERROR((IF(LEFT(Tabelle1!O105,1)="(",RIGHT(LEFT(Tabelle1!O105,FIND(")",Tabelle1!O105)-1),LEN(LEFT(Tabelle1!O105,FIND(")",Tabelle1!O105)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <f>IFERROR((IF(LEFT(Tabelle1!P105,1)="(",RIGHT(LEFT(Tabelle1!P105,FIND(")",Tabelle1!P105)-1),LEN(LEFT(Tabelle1!P105,FIND(")",Tabelle1!P105)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q105,1)="(",RIGHT(LEFT(Tabelle1!Q105,FIND(")",Tabelle1!Q105)-1),LEN(LEFT(Tabelle1!Q105,FIND(")",Tabelle1!Q105)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <f>IFERROR((IF(LEFT(Tabelle1!R105,1)="(",RIGHT(LEFT(Tabelle1!R105,FIND(")",Tabelle1!R105)-1),LEN(LEFT(Tabelle1!R105,FIND(")",Tabelle1!R105)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <f>IFERROR((IF(LEFT(Tabelle1!S105,1)="(",RIGHT(LEFT(Tabelle1!S105,FIND(")",Tabelle1!S105)-1),LEN(LEFT(Tabelle1!S105,FIND(")",Tabelle1!S105)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <f>IFERROR((IF(LEFT(Tabelle1!T105,1)="(",RIGHT(LEFT(Tabelle1!T105,FIND(")",Tabelle1!T105)-1),LEN(LEFT(Tabelle1!T105,FIND(")",Tabelle1!T105)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <f>IFERROR((IF(LEFT(Tabelle1!U105,1)="(",RIGHT(LEFT(Tabelle1!U105,FIND(")",Tabelle1!U105)-1),LEN(LEFT(Tabelle1!U105,FIND(")",Tabelle1!U105)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <f>IFERROR((IF(LEFT(Tabelle1!V105,1)="(",RIGHT(LEFT(Tabelle1!V105,FIND(")",Tabelle1!V105)-1),LEN(LEFT(Tabelle1!V105,FIND(")",Tabelle1!V105)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A104" s="13">
+        <f>Tabelle1!A106</f>
+        <v>43984</v>
+      </c>
+      <c r="B104">
+        <f>IFERROR((IF(LEFT(Tabelle1!B106,1)="(",RIGHT(LEFT(Tabelle1!B106,FIND(")",Tabelle1!B106)-1),LEN(LEFT(Tabelle1!B106,FIND(")",Tabelle1!B106)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <f>IFERROR((IF(LEFT(Tabelle1!C106,1)="(",RIGHT(LEFT(Tabelle1!C106,FIND(")",Tabelle1!C106)-1),LEN(LEFT(Tabelle1!C106,FIND(")",Tabelle1!C106)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <f>IFERROR((IF(LEFT(Tabelle1!D106,1)="(",RIGHT(LEFT(Tabelle1!D106,FIND(")",Tabelle1!D106)-1),LEN(LEFT(Tabelle1!D106,FIND(")",Tabelle1!D106)))-2),""))*1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <f>IFERROR((IF(LEFT(Tabelle1!E106,1)="(",RIGHT(LEFT(Tabelle1!E106,FIND(")",Tabelle1!E106)-1),LEN(LEFT(Tabelle1!E106,FIND(")",Tabelle1!E106)))-2),""))*1,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <f>IFERROR((IF(LEFT(Tabelle1!F106,1)="(",RIGHT(LEFT(Tabelle1!F106,FIND(")",Tabelle1!F106)-1),LEN(LEFT(Tabelle1!F106,FIND(")",Tabelle1!F106)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <f>IFERROR((IF(LEFT(Tabelle1!G106,1)="(",RIGHT(LEFT(Tabelle1!G106,FIND(")",Tabelle1!G106)-1),LEN(LEFT(Tabelle1!G106,FIND(")",Tabelle1!G106)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f>IFERROR((IF(LEFT(Tabelle1!H106,1)="(",RIGHT(LEFT(Tabelle1!H106,FIND(")",Tabelle1!H106)-1),LEN(LEFT(Tabelle1!H106,FIND(")",Tabelle1!H106)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <f>IFERROR((IF(LEFT(Tabelle1!I106,1)="(",RIGHT(LEFT(Tabelle1!I106,FIND(")",Tabelle1!I106)-1),LEN(LEFT(Tabelle1!I106,FIND(")",Tabelle1!I106)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <f>IFERROR((IF(LEFT(Tabelle1!J106,1)="(",RIGHT(LEFT(Tabelle1!J106,FIND(")",Tabelle1!J106)-1),LEN(LEFT(Tabelle1!J106,FIND(")",Tabelle1!J106)))-2),""))*1,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K104">
+        <f>IFERROR((IF(LEFT(Tabelle1!K106,1)="(",RIGHT(LEFT(Tabelle1!K106,FIND(")",Tabelle1!K106)-1),LEN(LEFT(Tabelle1!K106,FIND(")",Tabelle1!K106)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <f>IFERROR((IF(LEFT(Tabelle1!L106,1)="(",RIGHT(LEFT(Tabelle1!L106,FIND(")",Tabelle1!L106)-1),LEN(LEFT(Tabelle1!L106,FIND(")",Tabelle1!L106)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <f>IFERROR((IF(LEFT(Tabelle1!M106,1)="(",RIGHT(LEFT(Tabelle1!M106,FIND(")",Tabelle1!M106)-1),LEN(LEFT(Tabelle1!M106,FIND(")",Tabelle1!M106)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <f>IFERROR((IF(LEFT(Tabelle1!N106,1)="(",RIGHT(LEFT(Tabelle1!N106,FIND(")",Tabelle1!N106)-1),LEN(LEFT(Tabelle1!N106,FIND(")",Tabelle1!N106)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="O104">
+        <f>IFERROR((IF(LEFT(Tabelle1!O106,1)="(",RIGHT(LEFT(Tabelle1!O106,FIND(")",Tabelle1!O106)-1),LEN(LEFT(Tabelle1!O106,FIND(")",Tabelle1!O106)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="P104">
+        <f>IFERROR((IF(LEFT(Tabelle1!P106,1)="(",RIGHT(LEFT(Tabelle1!P106,FIND(")",Tabelle1!P106)-1),LEN(LEFT(Tabelle1!P106,FIND(")",Tabelle1!P106)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q106,1)="(",RIGHT(LEFT(Tabelle1!Q106,FIND(")",Tabelle1!Q106)-1),LEN(LEFT(Tabelle1!Q106,FIND(")",Tabelle1!Q106)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <f>IFERROR((IF(LEFT(Tabelle1!R106,1)="(",RIGHT(LEFT(Tabelle1!R106,FIND(")",Tabelle1!R106)-1),LEN(LEFT(Tabelle1!R106,FIND(")",Tabelle1!R106)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <f>IFERROR((IF(LEFT(Tabelle1!S106,1)="(",RIGHT(LEFT(Tabelle1!S106,FIND(")",Tabelle1!S106)-1),LEN(LEFT(Tabelle1!S106,FIND(")",Tabelle1!S106)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <f>IFERROR((IF(LEFT(Tabelle1!T106,1)="(",RIGHT(LEFT(Tabelle1!T106,FIND(")",Tabelle1!T106)-1),LEN(LEFT(Tabelle1!T106,FIND(")",Tabelle1!T106)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <f>IFERROR((IF(LEFT(Tabelle1!U106,1)="(",RIGHT(LEFT(Tabelle1!U106,FIND(")",Tabelle1!U106)-1),LEN(LEFT(Tabelle1!U106,FIND(")",Tabelle1!U106)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V104">
+        <f>IFERROR((IF(LEFT(Tabelle1!V106,1)="(",RIGHT(LEFT(Tabelle1!V106,FIND(")",Tabelle1!V106)-1),LEN(LEFT(Tabelle1!V106,FIND(")",Tabelle1!V106)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A105" s="13">
+        <f>Tabelle1!A107</f>
+        <v>43985</v>
+      </c>
+      <c r="B105">
+        <f>IFERROR((IF(LEFT(Tabelle1!B107,1)="(",RIGHT(LEFT(Tabelle1!B107,FIND(")",Tabelle1!B107)-1),LEN(LEFT(Tabelle1!B107,FIND(")",Tabelle1!B107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <f>IFERROR((IF(LEFT(Tabelle1!C107,1)="(",RIGHT(LEFT(Tabelle1!C107,FIND(")",Tabelle1!C107)-1),LEN(LEFT(Tabelle1!C107,FIND(")",Tabelle1!C107)))-2),""))*1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <f>IFERROR((IF(LEFT(Tabelle1!D107,1)="(",RIGHT(LEFT(Tabelle1!D107,FIND(")",Tabelle1!D107)-1),LEN(LEFT(Tabelle1!D107,FIND(")",Tabelle1!D107)))-2),""))*1,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <f>IFERROR((IF(LEFT(Tabelle1!E107,1)="(",RIGHT(LEFT(Tabelle1!E107,FIND(")",Tabelle1!E107)-1),LEN(LEFT(Tabelle1!E107,FIND(")",Tabelle1!E107)))-2),""))*1,0)</f>
+        <v>29</v>
+      </c>
+      <c r="F105">
+        <f>IFERROR((IF(LEFT(Tabelle1!F107,1)="(",RIGHT(LEFT(Tabelle1!F107,FIND(")",Tabelle1!F107)-1),LEN(LEFT(Tabelle1!F107,FIND(")",Tabelle1!F107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f>IFERROR((IF(LEFT(Tabelle1!G107,1)="(",RIGHT(LEFT(Tabelle1!G107,FIND(")",Tabelle1!G107)-1),LEN(LEFT(Tabelle1!G107,FIND(")",Tabelle1!G107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f>IFERROR((IF(LEFT(Tabelle1!H107,1)="(",RIGHT(LEFT(Tabelle1!H107,FIND(")",Tabelle1!H107)-1),LEN(LEFT(Tabelle1!H107,FIND(")",Tabelle1!H107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <f>IFERROR((IF(LEFT(Tabelle1!I107,1)="(",RIGHT(LEFT(Tabelle1!I107,FIND(")",Tabelle1!I107)-1),LEN(LEFT(Tabelle1!I107,FIND(")",Tabelle1!I107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <f>IFERROR((IF(LEFT(Tabelle1!J107,1)="(",RIGHT(LEFT(Tabelle1!J107,FIND(")",Tabelle1!J107)-1),LEN(LEFT(Tabelle1!J107,FIND(")",Tabelle1!J107)))-2),""))*1,0)</f>
+        <v>11</v>
+      </c>
+      <c r="K105">
+        <f>IFERROR((IF(LEFT(Tabelle1!K107,1)="(",RIGHT(LEFT(Tabelle1!K107,FIND(")",Tabelle1!K107)-1),LEN(LEFT(Tabelle1!K107,FIND(")",Tabelle1!K107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <f>IFERROR((IF(LEFT(Tabelle1!L107,1)="(",RIGHT(LEFT(Tabelle1!L107,FIND(")",Tabelle1!L107)-1),LEN(LEFT(Tabelle1!L107,FIND(")",Tabelle1!L107)))-2),""))*1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <f>IFERROR((IF(LEFT(Tabelle1!M107,1)="(",RIGHT(LEFT(Tabelle1!M107,FIND(")",Tabelle1!M107)-1),LEN(LEFT(Tabelle1!M107,FIND(")",Tabelle1!M107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <f>IFERROR((IF(LEFT(Tabelle1!N107,1)="(",RIGHT(LEFT(Tabelle1!N107,FIND(")",Tabelle1!N107)-1),LEN(LEFT(Tabelle1!N107,FIND(")",Tabelle1!N107)))-2),""))*1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="O105">
+        <f>IFERROR((IF(LEFT(Tabelle1!O107,1)="(",RIGHT(LEFT(Tabelle1!O107,FIND(")",Tabelle1!O107)-1),LEN(LEFT(Tabelle1!O107,FIND(")",Tabelle1!O107)))-2),""))*1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <f>IFERROR((IF(LEFT(Tabelle1!P107,1)="(",RIGHT(LEFT(Tabelle1!P107,FIND(")",Tabelle1!P107)-1),LEN(LEFT(Tabelle1!P107,FIND(")",Tabelle1!P107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <f>IFERROR((IF(LEFT(Tabelle1!Q107,1)="(",RIGHT(LEFT(Tabelle1!Q107,FIND(")",Tabelle1!Q107)-1),LEN(LEFT(Tabelle1!Q107,FIND(")",Tabelle1!Q107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <f>IFERROR((IF(LEFT(Tabelle1!R107,1)="(",RIGHT(LEFT(Tabelle1!R107,FIND(")",Tabelle1!R107)-1),LEN(LEFT(Tabelle1!R107,FIND(")",Tabelle1!R107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <f>IFERROR((IF(LEFT(Tabelle1!S107,1)="(",RIGHT(LEFT(Tabelle1!S107,FIND(")",Tabelle1!S107)-1),LEN(LEFT(Tabelle1!S107,FIND(")",Tabelle1!S107)))-2),""))*1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="T105">
+        <f>IFERROR((IF(LEFT(Tabelle1!T107,1)="(",RIGHT(LEFT(Tabelle1!T107,FIND(")",Tabelle1!T107)-1),LEN(LEFT(Tabelle1!T107,FIND(")",Tabelle1!T107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <f>IFERROR((IF(LEFT(Tabelle1!U107,1)="(",RIGHT(LEFT(Tabelle1!U107,FIND(")",Tabelle1!U107)-1),LEN(LEFT(Tabelle1!U107,FIND(")",Tabelle1!U107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <f>IFERROR((IF(LEFT(Tabelle1!V107,1)="(",RIGHT(LEFT(Tabelle1!V107,FIND(")",Tabelle1!V107)-1),LEN(LEFT(Tabelle1!V107,FIND(")",Tabelle1!V107)))-2),""))*1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A106" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
